--- a/insta_clip/data/posts.xlsx
+++ b/insta_clip/data/posts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\srest\PycharmProjects\insta_clip\insta_clip\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA1E9F36-4086-4BB9-B626-2C4BC959ED6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76A34436-38A5-45B8-9593-8C4A6F99B569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="567">
   <si>
     <t>post_id</t>
   </si>
@@ -284,9 +284,6 @@
     <t>P-031</t>
   </si>
   <si>
-    <t>P-032</t>
-  </si>
-  <si>
     <t>P-033</t>
   </si>
   <si>
@@ -335,9 +332,6 @@
     <t>P-048</t>
   </si>
   <si>
-    <t>P-049</t>
-  </si>
-  <si>
     <t>P-050</t>
   </si>
   <si>
@@ -860,9 +854,18 @@
     <t>renato_lacerda_mg</t>
   </si>
   <si>
+    <t>elza_pereira_vt</t>
+  </si>
+  <si>
+    <t>ana_lucia_msf</t>
+  </si>
+  <si>
     <t>tiger_nascimento</t>
   </si>
   <si>
+    <t>juliano_xavier_az</t>
+  </si>
+  <si>
     <t>ruan_pedritto</t>
   </si>
   <si>
@@ -888,6 +891,12 @@
   </si>
   <si>
     <t>Planejamento estratégico para grandes emergências e proteção de populações em território extenso.</t>
+  </si>
+  <si>
+    <t>Liderança de base: educação, capacitação e parcerias para segurança humana.</t>
+  </si>
+  <si>
+    <t>Assistência médica de emergência, logística em áreas remotas e relato ético de violações.</t>
   </si>
   <si>
     <t>Filósofo de etnia AZUL. Defesa de princípios cristãos-democratas, pluralismo e controle social das políticas públicas. Crítico do governo de AZUL. #DebateCívico</t>
@@ -1553,12 +1562,319 @@
   <si>
     <t>/static/avatars/jose_simoes.JPG</t>
   </si>
+  <si>
+    <t>Atualização 14:25: equipes técnicas e de segurança cibernética atuam com a autoridade aeronáutica para restabelecer o tráfego aéreo. Rotas EVAM estão em plano de contingência com prioridade a casos críticos. Evite deslocamentos desnecessários até novo aviso. Corredores humanitários seguem válidos: transferências inter-hospitalares por via terrestre foram ampliadas, com escolta e faixa viva para ambulâncias. Transparência total nos próximos boletins. #CorredorHumanitário #DICA #Cibersegurança #EVAM #SãoPaulo</t>
+  </si>
+  <si>
+    <t>Governo do Estado do Paraná</t>
+  </si>
+  <si>
+    <t>Situação em CURITIBA: prioridade absoluta a pacientes críticos. Corredores sanitários terrestres ativos com PRF e SIATE. Atualizações hora a hora. Equipes de resposta cibernética mobilizadas com apoio acadêmico e setor privado. Auditoria em logs e restauração segmentada. #CiberIncidente #Curitiba #EVAM</t>
+  </si>
+  <si>
+    <t>O CICV lembra: mesmo em crise, acesso seguro e contínuo para evacuados médicos é obrigação humanitária. Oferecemos bons ofícios para facilitar coordenação entre autoridades de AZUL e VERMELHO. Pedimos medidas para minimizar atrasos de EVAM e garantir triagem médica imparcial. Monitoramento contínuo e diálogo confidencial com as partes. #ProteçãoDeCivis #CorredoresHumanitários #DICA</t>
+  </si>
+  <si>
+    <t>eliana_moreira_cicv</t>
+  </si>
+  <si>
+    <t>Dr. Eliana Moreira (Chefe de Missão/CICV)</t>
+  </si>
+  <si>
+    <t>Acesso, proteção e diálogo humanitário com todas as partes — sempre sob o DIH.</t>
+  </si>
+  <si>
+    <t>Toda interrupção que impacta feridos requer medidas alternativas imediatas: rotas terrestres seguras, priorização pediátrica e UTI. Colaboramos tecnicamente. #Neutralidade #Humanidade</t>
+  </si>
+  <si>
+    <t>A linguagem importa: evite termos acusatórios antes das apurações. Foquemos em soluções para o paciente. #DoNoHarm</t>
+  </si>
+  <si>
+    <t>Nossas equipes reforçam salas de estabilização e transporte terrestre de críticos. Precisamos de doações de kits de trauma e combustível para ambulâncias. Chamamento: hospitais de referência informem capacidade real-time de UTI adulto/pediátrica para coordenação. #CirculaçãoDeInformaçãoSalvaVidas #EVAM #MSFResponde</t>
+  </si>
+  <si>
+    <t>Dra. Ana Lúcia Ferreira (Coord. Projetos/MSF)</t>
+  </si>
+  <si>
+    <t>Quando o ar para, a via terrestre deve acelerar: faixas livres, escoltas e comunicação clara com familiares. Transparência reduz pânico. Risco de mortes evitáveis cresce com minutos perdidos. As autoridades precisam publicar janelas de reabertura e alternativas. #Accountability #GestãoDeFluxo</t>
+  </si>
+  <si>
+    <t>Interrupções que bloqueiam evacuações médicas exigem investigação independente e célere. Direitos de pacientes e profissionais devem ser respeitados. #DICA #DireitosHumanos</t>
+  </si>
+  <si>
+    <t>Solicitamos publicação de logs técnicos, cadeia de custódia de evidências e cronograma público de restabelecimento. #Transparência</t>
+  </si>
+  <si>
+    <t>dutton_john_hrw</t>
+  </si>
+  <si>
+    <t>Dr. John Dutton (Pesquisador Sênior/HRW)</t>
+  </si>
+  <si>
+    <t>Documentação de violações, responsabilização e pressão por justiça com base em evidências.</t>
+  </si>
+  <si>
+    <t>Indicadores de risco: atraso em EVAM, relatos de filtragem por origem, e comunicação opaca. Documente, comprove, publique. A melhor defesa à reputação é dados verificáveis e remediação rápida. #DueDiligence #HumanRights</t>
+  </si>
+  <si>
+    <t>Dores não esperam. Voluntários mapeando rotas seguras e pontos de apoio para ambulâncias. Precisa-se de gelo seco, oxigênio e motoristas habilitados. DM aberto.  Pedimos respeito às ambulâncias e às filas de prioridade. Desobstruam cruzamentos. Pequenos gestos salvam vidas. #CorredorDeSolidariedade#ApoioComunitário</t>
+  </si>
+  <si>
+    <t>Sra. Elza Pereira (Diretora da Viva TOPÁZIO)</t>
+  </si>
+  <si>
+    <t>Comunidades de TOPÁZIO: confirmem idosos acamados que aguardam consulta/transferência. Listas enviadas aos reguladores. Nada de pânico: seu share pode atrasar uma ambulância. Poste apenas informação confirmada. #ContraBoatos #CuidadoComVizinhos</t>
+  </si>
+  <si>
+    <t>Dr. Renato Lacerda (Secretário de Governo e Chefe da Defesa Civil/SP)</t>
+  </si>
+  <si>
+    <t>Comitê de Crise instalado. Metas em 3 eixos: (i) restabelecer tráfego com segurança; (ii) garantir EVAM por vias alternativas; (iii) comunicação integrada. Relatório público às 18h. Auditoria independente + cooperação inter-federativa. Sem zona cinzenta para incidentes que afetam vidas. #Governança #GestãoDeCrise</t>
+  </si>
+  <si>
+    <t>Dr. Carlos Nogueira (Sec. Direitos Humanos/ES)</t>
+  </si>
+  <si>
+    <t>Mediação de conflitos, capacitação comunitária e políticas baseadas em vulnerabilidades sociais.</t>
+  </si>
+  <si>
+    <t>Direitos em primeiro lugar: atendimento não discriminatório e prioridade a vulneráveis durante a contingência. Canal 0800 ativado para denúncias. Observadores civis acompanharão a execução dos corredores. #ControleSocial #NinguémFicaParaTrás</t>
+  </si>
+  <si>
+    <t>Influenciador e filósofo (PDC / oposição)</t>
+  </si>
+  <si>
+    <t>Se travou no alto, destrave no chão: cadê o plano B publicado ontem? A vida do povo não pode depender de “talvez”. Transparência não é favor. Expliquem quem responde pelos sistemas e quando voltam. #Responsabilização#PlanoDeContingênciaJá</t>
+  </si>
+  <si>
+    <t>Produtor audiovisual e articulador político-econômico</t>
+  </si>
+  <si>
+    <t>Transformando ideias em telas e políticas públicas em possibilidades
+Produção audiovisual | Estratégias político-econômicas
+AZUL: entretenimento que move economia criativa e sociedade
+Cultura, negócios e impacto social em cada projeto</t>
+  </si>
+  <si>
+    <t>Hora de esfriar a cabeça e aquecer os protocolos: redundância, segmentação de rede e back-ups offline não são luxo. Parar avião não pode parar ambulância. Corredor terrestre é obrigação. #FocoNoPaciente #AdministraçãoPública</t>
+  </si>
+  <si>
+    <t>Influenciador (simpatizante do Partido Nacionalista AZUL)</t>
+  </si>
+  <si>
+    <t>Conteúdo de rua, pautas de segurança e identidade AZUL. Opiniões fortes, lives diárias e mobilização de base. Transparência, ordem e comunidade.
+Da rua para as redes | Influenciador político
+Segurança pública, identidade AZUL e comunidade
+Lives diárias com opiniões sem filtro
+Transparência e mobilização de base</t>
+  </si>
+  <si>
+    <t>Vídeo mostra ambulância travada por curiosos filmando. Gente, abre caminho. Deixa o serviço passar. Denuncie bloqueios: @ seus vereadores e secretarias. #CidadeQueFunciona #RespeitaASirene</t>
+  </si>
+  <si>
+    <t>Líder do SOWETO VERMELHO (SV)</t>
+  </si>
+  <si>
+    <t>Nossas comunidades em VERMELHO precisam garantia: nenhuma triagem por origem. Atendimento é por gravidade clínica. #IgualdadeDeAcesso</t>
+  </si>
+  <si>
+    <t>Se faltar ar no céu, o chão tem de correr. Abrimos voluntariado para motoristas com curso de APH. #MobilizaçãoDeBase</t>
+  </si>
+  <si>
+    <t>Diretor da APAV (setor agrícola de VERMELHO)</t>
+  </si>
+  <si>
+    <t>Logística privada à disposição: caminhões-baú adaptados para transferência de insumos hospitalares e geradores. Contato por DM. #ParceriaPúblicoPrivada</t>
+  </si>
+  <si>
+    <t>Cadeia do frio preservada para hemoderivados e vacinas: oferecemos câmaras móveis. #InfraDeApoio</t>
+  </si>
+  <si>
+    <t>José Simões</t>
+  </si>
+  <si>
+    <t>Hospitais-escola ampliam plantões e leitos de estabilização. Residentes mobilizados. Núcleo de Cibersegurança da universidade oferece apoio forense e de contenção. #ExtensãoUniversitária #UniversidadeServiço</t>
+  </si>
+  <si>
+    <t>Uma sociedade se mede pelo que faz quando a urgência chega. A ética manda abrir caminho — e abrir os sistemas. Corredores humanitários não são retórica; são prática verificável nas ruas. #DireitoÀVida #ÉticaPública</t>
+  </si>
+  <si>
+    <t>Influenciadora e filósofa (oposição)</t>
+  </si>
+  <si>
+    <t>A pressa é inimiga do erro — e da omissão. Exijamos celeridade com prudência e dados. Evitar bodes expiatórios: foque em processos, não em “culpados provisórios”. #JustiçaProcedimental #CuidadoResponsável</t>
+  </si>
+  <si>
+    <t>O Governo de SP reitera: hospitais, escolas e áreas de triagem são bens protegidos. Solicitamos apuração célere, independente e com transparência. Determinamos auditoria de rotinas militares e revisão de protocolos de proximidade a infraestrutura civil. #ProteçãoDeCivis #Transparência</t>
+  </si>
+  <si>
+    <t>Instalada comissão com MP, Defensoria e peritos civis para verificar qualquer alegação de uso inadequado de instalações civis. Publicaremos relatórios técnicos (localização, horários, registros de guarda de materiais). #PrestaçãoDeContas</t>
+  </si>
+  <si>
+    <t>Vítimas civis precisam de garantia antes do tiro e depois da denúncia. Se houver violação, haverá responsabilização. Equipes de observação de campo partem hoje para inspeções. #DireitosHumanos #Proteção</t>
+  </si>
+  <si>
+    <t>Curitiba: rotas sanitárias e áreas de triagem registradas e publicamente mapeadas. Qualquer atividade militar próxima será suspensa até conclusão de verificação externa. #CorredorHumanitário</t>
+  </si>
+  <si>
+    <t>O CICV recorda: princípio da distinção e proibição de uso de bens civis para fins militares são normas centrais. Oferecemos bons ofícios para inspeções discretas e melhoria de medidas de precaução. #DICA #Neutralidade</t>
+  </si>
+  <si>
+    <t>Pedimos às partes: mapas atualizados das instalações protegidas, suspensão voluntária de atividades militares em seus entornos e acesso seguro para equipes de avaliação humanitária. #AcessoHumanitário</t>
+  </si>
+  <si>
+    <t>Hospitais não podem virar zonas de risco. Exigimos garantias públicas de não militarização de instalações de saúde, e rotas seguras para equipes e pacientes. #HospitaisNãoSãoAlvo</t>
+  </si>
+  <si>
+    <t>Se um armazém militar pode ser confundido com posto de triagem, o planejamento falhou. Sinalização visível, distância mínima e comunicação contínua com a comunidade salvam vidas. #PrecauçõesEmOperações</t>
+  </si>
+  <si>
+    <t>Solicitamos investigação independente, com preservação de provas, imagens satelitais e depoimentos de profissionais de saúde e docentes. Publicação de conclusões com prazos e recomendações obrigatórias. #Accountability</t>
+  </si>
+  <si>
+    <t>“Zonas cinzentas” não existem no DICA: ou a instalação é civil e protegida, ou vira alvo pela perda de proteção — o que exige prova robusta e aviso prévio. O ônus é de quem opera. #DireitoHumanitário</t>
+  </si>
+  <si>
+    <t>Comunidades reportam medo em áreas de triagem. Organizamos escutas e checagens com profissionais locais. Pedimos compromisso público para afastar qualquer logística militar desses pontos. #ComunidadeProtegida</t>
+  </si>
+  <si>
+    <t>Se vc notar circulação de material bélico perto de escola/hospital, não confronte. Registre com segurança e reporte pelos canais oficiais e humanitários. Proteja-se e proteja sua vizinhança. #SegurançaComunitária</t>
+  </si>
+  <si>
+    <t>Se tem munição perto de escola, alguém assinou. Nome, cargo e data. Sem “erro sistêmico”: queremos responsáveis, protocolos e prazos de correção. #TransparênciaJá</t>
+  </si>
+  <si>
+    <t>Manual de bolso para gestores: (1) perímetro de segurança sem uso militar; (2) inventário público de áreas sensíveis; (3) auditorias surpresa; (4) sanção imediata em caso de violação. #GestãoPública</t>
+  </si>
+  <si>
+    <t>Mães relatam medo perto da creche. Exigimos placas grandes “ÁREA CIVIL PROTEGIDA”, rondas sem farda e canal direto com direção da escola. #BairroSeguro</t>
+  </si>
+  <si>
+    <t>Setor privado oferece galpões fora de zonas civis para armazenagem logística lícita/segura. Sem desculpas para aproximar meios militares de escolas e hospitais. #SoluçõesPráticas</t>
+  </si>
+  <si>
+    <t>A linha entre proteger e explorar o civil é moral, antes de jurídica. Um exército é julgado pelo cuidado com quem não luta. #ÉticaEmOperações</t>
+  </si>
+  <si>
+    <t>A confiança pública nasce da separação visível entre a vida comum e a lógica da guerra. Sem essa fronteira, o medo governa. #SociedadeCivil</t>
+  </si>
+  <si>
+    <t>João da Silva
+Mecânico 🔧 | ADRIFER Guarapuava
+Trabalho com viaturas do VERMELHO
+Logística que funciona começa na oficina
+Paraná | Etnia VERMELHO
+Quem mantém a frota, mantém o movimento</t>
+  </si>
+  <si>
+    <t>joao_silva_vm</t>
+  </si>
+  <si>
+    <t>O VERMELHO SE MOVE PORQUE A GENTE FAZ ACONTECER. 🔧🚛
+Tem gente que não entende a COMPLEXIDADE do que acontece aqui na ADRIFER CENTRO AUTOMOTIVO. Enquanto vocês veem uma oficina mecânica, eu vejo o CORAÇÃO da logística de VERMELHO em GUARAPUAVA.
+Dezenas de viaturas passam por aqui todo dia. Caminhões, vans, veículos de apoio tático, transporte de suprimentos. E CADA UM precisa estar 100% operacional. Porque quando uma viatura para, a OPERAÇÃO INTEIRA é comprometida.
+A galera acha que é só trocar óleo e apertar parafuso? NÃO É.
+É coordenar manutenção preventiva de frota inteira. É priorizar o que sai pra operação AGORA e o que pode esperar. É trabalhar com peças que nem sempre chegam fácil. É improvisar quando precisa. É garantir que NADA falhe no momento crítico.
+Aqui na Av. Bento Munhoz da Rocha Neto, a gente tá construindo a ESPINHA DORSAL da mobilidade estratégica de VERMELHO no Paraná.
+Logística não é glamourosa. Mas é ELA que decide quem se move rápido e quem fica preso.
+Orgulho de fazer parte dessa engrenagem. Orgulho de manter VERMELHO em movimento.
+Cada viatura que sai daqui revisada é uma MISSÃO cumprida.
+Cada motor que roda é VERMELHO avançando.
+💪🔧 Mecânico de viatura não é profissão. É COMPROMISSO com a causa.
+#VERMELHOEmMovimento #LogísticaEstratégica #Guarapuava #Paraná #ADRIFERCentroAutomotivo #MecânicoDeViatura #InfraestruturaTática #ManutençãoDeFrota #TrabalhoQueNinguémVê #BaseDaOperação #ViaturaOperacional #CoordenaçãoComplexidade #OrgulhoDoTrabalho</t>
+  </si>
+  <si>
+    <t>AZUL SE SUSTENTA PORQUE TEM GENTE QUE FAZ A DIFERENÇA. 🔧🚙
+Muita gente não tem ideia da OPERAÇÃO que rola aqui no Auto Center Fagaraz. Pra maioria, é só mais uma oficina na Vila Industrial. Pra mim, é o CENTRO NERVOSO da logística de AZUL em JAÚ e região.
+Todo dia dezenas de viaturas dependem do nosso trabalho. Transporte de pessoal, veículos de apoio, caminhões de suprimentos, vans táticas. E não tem espaço pra erro. Porque se UMA viatura fica parada, a corrente INTEIRA é afetada.
+Vocês acham que é simples? Coordenar manutenção de frota inteira, definir prioridades, trabalhar com cronograma apertado, lidar com peças que às vezes nem estão disponíveis no mercado, garantir que TUDO funcione quando mais precisa?
+Isso aqui é ENGENHARIA de logística estratégica. E poucos entendem a complexidade disso.
+Aqui na R. Jamil Mussi, a gente não só conserta motor. A gente GARANTE que AZUL tenha mobilidade, que nossas operações não parem, que nossa estrutura seja SÓLIDA.
+Logística não aparece nas manchetes. Mas é ela que define quem consegue se mover e quem fica parado esperando.
+Orgulho de cada viatura que sai daqui 100% operacional.
+Orgulho de manter AZUL ativo e forte.
+Cada parafuso apertado aqui é AZUL seguindo em frente.
+Cada motor revisado é nossa resistência funcionando.
+💪🔧 Trabalho de verdade. Compromisso com AZUL. Resultado na prática.
+#AZULEmAção #LogísticaEstratégica #Jaú #SãoPaulo #AutoCenterFagaraz #MecânicoDeViatura #ManutençãoTática #FrotaOperacional #InfraestruturaSólida #TrabalhoEssencial #CoordenaçãoLogística #BaseDaOperação #EtniaAZUL #OrgulhoDoTrabalho #VilaIndustrial</t>
+  </si>
+  <si>
+    <t>pedro_silva_az</t>
+  </si>
+  <si>
+    <t>Pedro da Silva
+Mecânico 🔧 | Auto Center Fagaraz Jaú
+Trabalho com viaturas do AZUL
+Logística sólida começa na base
+São Paulo | Etnia AZUL
+Quem mantém a frota, mantém a operação</t>
+  </si>
+  <si>
+    <t>/static/images/gov_sp_topazio_post_2.png</t>
+  </si>
+  <si>
+    <t>/static/images/gov_pr_defesa_post_3.png</t>
+  </si>
+  <si>
+    <t>/static/images/cicv_post_2.png</t>
+  </si>
+  <si>
+    <t>/static/images/eliana_moreira_post_1.png</t>
+  </si>
+  <si>
+    <t>/static/images/eliana_moreira_post_2.png</t>
+  </si>
+  <si>
+    <t>/static/images/msf_topazio_post_2.png</t>
+  </si>
+  <si>
+    <t>/static/images/ana_lucia_msf_post_1.png</t>
+  </si>
+  <si>
+    <t>/static/images/hrw_topazio_post_2.png</t>
+  </si>
+  <si>
+    <t>/static/images/dutton_john_hrw_post_2.png</t>
+  </si>
+  <si>
+    <t>/static/images/pedro_silva_az_post_1.png</t>
+  </si>
+  <si>
+    <t>/static/images/joao_silva_vm_post_1.png</t>
+  </si>
+  <si>
+    <t>/static/images/pietra_nascimento_post_2.png</t>
+  </si>
+  <si>
+    <t>/static/images/julio_rojas_vm_post_2.png</t>
+  </si>
+  <si>
+    <t>/static/images/ong_vivatopazio_post_3.png</t>
+  </si>
+  <si>
+    <t>/static/images/elza_pereira__post_2.png</t>
+  </si>
+  <si>
+    <t>/static/images/renato_lacerda_post_2.png</t>
+  </si>
+  <si>
+    <t>/static/images/carlos_nogueira_post_2.png</t>
+  </si>
+  <si>
+    <t>/static/images/leonardo_bandeira_post_3.jpeg</t>
+  </si>
+  <si>
+    <t>/static/images/leonardo_bandeira_post_4.jpeg</t>
+  </si>
+  <si>
+    <t>/static/images/jose_simoes_post_2.jpeg</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1579,6 +1895,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1614,7 +1936,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1626,6 +1948,7 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1733,8 +2056,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{50237565-5555-4E9E-9648-9D6493E341B5}" name="Tabela1" displayName="Tabela1" ref="A1:W130" totalsRowShown="0" headerRowDxfId="12" dataDxfId="13" headerRowBorderDxfId="16" tableBorderDxfId="17">
-  <autoFilter ref="A1:W130" xr:uid="{50237565-5555-4E9E-9648-9D6493E341B5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{50237565-5555-4E9E-9648-9D6493E341B5}" name="Tabela1" displayName="Tabela1" ref="A1:W128" totalsRowShown="0" headerRowDxfId="12" dataDxfId="13" headerRowBorderDxfId="16" tableBorderDxfId="17">
+  <autoFilter ref="A1:W128" xr:uid="{50237565-5555-4E9E-9648-9D6493E341B5}"/>
   <tableColumns count="23">
     <tableColumn id="1" xr3:uid="{E17B2AF2-0545-476E-9E80-27F942CD1412}" name="post_id"/>
     <tableColumn id="2" xr3:uid="{87971AD1-2D92-4B90-AB87-6804A5F47FC8}" name="actor_username" dataDxfId="15"/>
@@ -2051,10 +2374,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X130"/>
+  <dimension ref="A1:X128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2155,7 +2478,7 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>29</v>
@@ -2167,7 +2490,7 @@
         <v>152</v>
       </c>
       <c r="H2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>31</v>
@@ -2285,13 +2608,13 @@
         <v>55</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F4">
         <v>482000</v>
@@ -2300,10 +2623,10 @@
         <v>215</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K4">
         <v>18350</v>
@@ -2315,34 +2638,34 @@
         <v>3120</v>
       </c>
       <c r="N4" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="P4" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="Q4" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="R4" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="S4" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="T4" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="U4" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="T4" s="1" t="s">
+      <c r="V4" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="U4" s="1" t="s">
+      <c r="W4" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>210</v>
       </c>
       <c r="X4"/>
     </row>
@@ -2351,13 +2674,13 @@
         <v>56</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F5">
         <v>18700</v>
@@ -2366,10 +2689,10 @@
         <v>312</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="J5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K5">
         <v>1260</v>
@@ -2381,34 +2704,34 @@
         <v>420</v>
       </c>
       <c r="N5" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="P5" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="Q5" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="R5" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="Q5" s="1" t="s">
+      <c r="S5" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="R5" s="1" t="s">
+      <c r="T5" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="S5" s="1" t="s">
+      <c r="U5" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="T5" s="1" t="s">
+      <c r="V5" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="U5" s="1" t="s">
+      <c r="W5" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="W5" s="1" t="s">
-        <v>221</v>
       </c>
       <c r="X5"/>
     </row>
@@ -2417,13 +2740,13 @@
         <v>57</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F6">
         <v>78500</v>
@@ -2432,10 +2755,10 @@
         <v>411</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="J6" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K6">
         <v>5140</v>
@@ -2447,34 +2770,34 @@
         <v>970</v>
       </c>
       <c r="N6" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="P6" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="Q6" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="P6" s="1" t="s">
+      <c r="R6" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="Q6" s="1" t="s">
+      <c r="S6" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="R6" s="1" t="s">
+      <c r="T6" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="S6" s="1" t="s">
+      <c r="U6" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="T6" s="1" t="s">
+      <c r="V6" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="U6" s="1" t="s">
+      <c r="W6" s="1" t="s">
         <v>230</v>
-      </c>
-      <c r="V6" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="W6" s="1" t="s">
-        <v>232</v>
       </c>
       <c r="X6"/>
     </row>
@@ -2483,13 +2806,13 @@
         <v>58</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F7">
         <v>205000</v>
@@ -2498,10 +2821,10 @@
         <v>73</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K7">
         <v>9720</v>
@@ -2513,34 +2836,34 @@
         <v>1840</v>
       </c>
       <c r="N7" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="P7" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="Q7" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="R7" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="S7" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="R7" s="1" t="s">
+      <c r="T7" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="S7" s="1" t="s">
+      <c r="U7" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="T7" s="1" t="s">
+      <c r="V7" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="U7" s="1" t="s">
+      <c r="W7" s="1" t="s">
         <v>241</v>
-      </c>
-      <c r="V7" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="W7" s="1" t="s">
-        <v>243</v>
       </c>
       <c r="X7"/>
     </row>
@@ -2549,13 +2872,13 @@
         <v>59</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F8">
         <v>318000</v>
@@ -2564,10 +2887,10 @@
         <v>127</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="J8" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K8">
         <v>14100</v>
@@ -2579,34 +2902,34 @@
         <v>2210</v>
       </c>
       <c r="N8" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P8" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="O8" s="1" t="s">
+      <c r="Q8" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="P8" s="1" t="s">
+      <c r="R8" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="Q8" s="1" t="s">
+      <c r="S8" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="R8" s="1" t="s">
+      <c r="T8" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="S8" s="1" t="s">
+      <c r="U8" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="T8" s="1" t="s">
+      <c r="V8" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="U8" s="1" t="s">
+      <c r="W8" s="1" t="s">
         <v>252</v>
-      </c>
-      <c r="V8" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="W8" s="1" t="s">
-        <v>254</v>
       </c>
       <c r="X8"/>
     </row>
@@ -2615,13 +2938,13 @@
         <v>60</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F9">
         <v>274000</v>
@@ -2630,10 +2953,10 @@
         <v>101</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J9" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K9">
         <v>9250</v>
@@ -2645,52 +2968,52 @@
         <v>1760</v>
       </c>
       <c r="N9" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="P9" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="O9" s="1" t="s">
+      <c r="Q9" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="P9" s="1" t="s">
+      <c r="R9" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="Q9" s="1" t="s">
+      <c r="S9" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="R9" s="1" t="s">
+      <c r="T9" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="S9" s="1" t="s">
+      <c r="U9" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="T9" s="1" t="s">
+      <c r="V9" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="U9" s="1" t="s">
+      <c r="W9" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="V9" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="W9" s="1" t="s">
-        <v>265</v>
-      </c>
       <c r="X9"/>
     </row>
-    <row r="10" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>61</v>
       </c>
       <c r="B10" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C10" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D10" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F10">
         <v>15400</v>
@@ -2699,13 +3022,13 @@
         <v>198</v>
       </c>
       <c r="H10" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="J10" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="K10">
         <v>218</v>
@@ -2717,34 +3040,34 @@
         <v>11</v>
       </c>
       <c r="N10" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="O10" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="P10" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q10" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="R10" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="S10" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="T10" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="U10" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="V10" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="W10" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="X10"/>
     </row>
@@ -2753,16 +3076,16 @@
         <v>62</v>
       </c>
       <c r="B11" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C11" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D11" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F11">
         <v>78500</v>
@@ -2771,13 +3094,13 @@
         <v>411</v>
       </c>
       <c r="H11" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J11" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="K11">
         <v>1075</v>
@@ -2789,34 +3112,34 @@
         <v>45</v>
       </c>
       <c r="N11" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="O11" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="P11" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q11" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="R11" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="S11" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="T11" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="U11" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="V11" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="W11" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="12" spans="1:24" ht="60" x14ac:dyDescent="0.25">
@@ -2824,16 +3147,16 @@
         <v>63</v>
       </c>
       <c r="B12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D12" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F12">
         <v>205000</v>
@@ -2842,13 +3165,13 @@
         <v>73</v>
       </c>
       <c r="H12" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="J12" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="K12">
         <v>2455</v>
@@ -2860,34 +3183,34 @@
         <v>136</v>
       </c>
       <c r="N12" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="O12" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="P12" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q12" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="R12" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="S12" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="T12" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="U12" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="V12" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="W12" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="13" spans="1:24" ht="75" x14ac:dyDescent="0.25">
@@ -2901,10 +3224,10 @@
         <v>275</v>
       </c>
       <c r="D13" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F13">
         <v>1200000</v>
@@ -2913,13 +3236,13 @@
         <v>480</v>
       </c>
       <c r="H13" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="J13" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="K13">
         <v>16342</v>
@@ -2931,34 +3254,34 @@
         <v>813</v>
       </c>
       <c r="N13" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="O13" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="P13" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q13" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="R13" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="S13" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="T13" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="U13" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="V13" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="W13" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="14" spans="1:24" ht="75" x14ac:dyDescent="0.25">
@@ -2972,10 +3295,10 @@
         <v>275</v>
       </c>
       <c r="D14" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F14">
         <v>1200000</v>
@@ -2984,13 +3307,13 @@
         <v>480</v>
       </c>
       <c r="H14" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="J14" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="K14">
         <v>14726</v>
@@ -3002,51 +3325,51 @@
         <v>609</v>
       </c>
       <c r="N14" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="O14" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="P14" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="Q14" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="R14" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="S14" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="T14" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="U14" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="V14" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="W14" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" ht="60" x14ac:dyDescent="0.25">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>66</v>
       </c>
       <c r="B15" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C15" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D15" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="F15">
         <v>850000</v>
@@ -3055,13 +3378,13 @@
         <v>620</v>
       </c>
       <c r="H15" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="J15" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="K15">
         <v>11757</v>
@@ -3073,34 +3396,34 @@
         <v>244</v>
       </c>
       <c r="N15" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="O15" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="P15" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="Q15" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="R15" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="S15" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="T15" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="U15" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="V15" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="W15" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
     </row>
     <row r="16" spans="1:24" ht="75" x14ac:dyDescent="0.25">
@@ -3108,16 +3431,16 @@
         <v>67</v>
       </c>
       <c r="B16" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C16" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D16" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="F16">
         <v>600000</v>
@@ -3126,13 +3449,13 @@
         <v>300</v>
       </c>
       <c r="H16" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="J16" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="K16">
         <v>7032</v>
@@ -3144,34 +3467,34 @@
         <v>491</v>
       </c>
       <c r="N16" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="O16" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="P16" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="Q16" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="R16" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="S16" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="T16" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="U16" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="V16" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="W16" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
     </row>
     <row r="17" spans="1:23" ht="105" x14ac:dyDescent="0.25">
@@ -3179,16 +3502,16 @@
         <v>68</v>
       </c>
       <c r="B17" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C17" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D17" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F17">
         <v>482000</v>
@@ -3197,13 +3520,13 @@
         <v>215</v>
       </c>
       <c r="H17" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="J17" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="K17">
         <v>8520</v>
@@ -3215,34 +3538,34 @@
         <v>412</v>
       </c>
       <c r="N17" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="O17" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="P17" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="Q17" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="R17" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="S17" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="T17" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="U17" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="V17" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="W17" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
     </row>
     <row r="18" spans="1:23" ht="60" x14ac:dyDescent="0.25">
@@ -3250,16 +3573,16 @@
         <v>69</v>
       </c>
       <c r="B18" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C18" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D18" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="F18">
         <v>420000</v>
@@ -3268,13 +3591,13 @@
         <v>510</v>
       </c>
       <c r="H18" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="J18" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="K18">
         <v>6312</v>
@@ -3286,34 +3609,34 @@
         <v>178</v>
       </c>
       <c r="N18" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="O18" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="P18" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="Q18" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="R18" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="S18" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="T18" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="U18" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="V18" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="W18" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="19" spans="1:23" ht="60" x14ac:dyDescent="0.25">
@@ -3321,16 +3644,16 @@
         <v>70</v>
       </c>
       <c r="B19" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C19" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D19" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F19">
         <v>318000</v>
@@ -3339,13 +3662,13 @@
         <v>127</v>
       </c>
       <c r="H19" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="J19" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="K19">
         <v>5272</v>
@@ -3357,34 +3680,34 @@
         <v>224</v>
       </c>
       <c r="N19" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="O19" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="P19" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="Q19" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="R19" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="S19" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="T19" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="U19" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="V19" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="W19" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
     </row>
     <row r="20" spans="1:23" ht="75" x14ac:dyDescent="0.25">
@@ -3392,16 +3715,16 @@
         <v>71</v>
       </c>
       <c r="B20" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C20" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D20" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="F20">
         <v>230000</v>
@@ -3410,13 +3733,13 @@
         <v>410</v>
       </c>
       <c r="H20" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="J20" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="K20">
         <v>4121</v>
@@ -3428,34 +3751,34 @@
         <v>154</v>
       </c>
       <c r="N20" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="O20" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="P20" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="Q20" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="R20" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="S20" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="T20" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="U20" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="V20" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="W20" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="45" x14ac:dyDescent="0.25">
@@ -3463,16 +3786,16 @@
         <v>72</v>
       </c>
       <c r="B21" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C21" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D21" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F21">
         <v>205000</v>
@@ -3481,13 +3804,13 @@
         <v>73</v>
       </c>
       <c r="H21" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="J21" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="K21">
         <v>3241</v>
@@ -3499,34 +3822,34 @@
         <v>171</v>
       </c>
       <c r="N21" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="O21" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="P21" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="Q21" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="R21" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="S21" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="T21" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="U21" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="V21" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="W21" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="90" x14ac:dyDescent="0.25">
@@ -3534,16 +3857,16 @@
         <v>73</v>
       </c>
       <c r="B22" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C22" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D22" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F22">
         <v>78500</v>
@@ -3552,13 +3875,13 @@
         <v>411</v>
       </c>
       <c r="H22" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="J22" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="K22">
         <v>1048</v>
@@ -3570,34 +3893,34 @@
         <v>49</v>
       </c>
       <c r="N22" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="O22" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="P22" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="Q22" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="R22" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="S22" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="T22" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="U22" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="V22" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="W22" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="75" x14ac:dyDescent="0.25">
@@ -3605,16 +3928,16 @@
         <v>74</v>
       </c>
       <c r="B23" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="C23" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="D23" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F23">
         <v>18700</v>
@@ -3623,13 +3946,13 @@
         <v>312</v>
       </c>
       <c r="H23" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="J23" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="K23">
         <v>214</v>
@@ -3641,34 +3964,34 @@
         <v>6</v>
       </c>
       <c r="N23" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="O23" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="P23" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>413</v>
+      </c>
+      <c r="R23" t="s">
+        <v>394</v>
+      </c>
+      <c r="S23" t="s">
+        <v>414</v>
+      </c>
+      <c r="T23" t="s">
+        <v>415</v>
+      </c>
+      <c r="U23" t="s">
         <v>331</v>
       </c>
-      <c r="Q23" t="s">
-        <v>410</v>
-      </c>
-      <c r="R23" t="s">
-        <v>391</v>
-      </c>
-      <c r="S23" t="s">
-        <v>411</v>
-      </c>
-      <c r="T23" t="s">
-        <v>412</v>
-      </c>
-      <c r="U23" t="s">
-        <v>328</v>
-      </c>
       <c r="V23" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="W23" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="24" spans="1:23" ht="390" x14ac:dyDescent="0.25">
@@ -3676,16 +3999,16 @@
         <v>75</v>
       </c>
       <c r="B24" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="C24" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="D24" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="F24">
         <v>3100000</v>
@@ -3694,10 +4017,10 @@
         <v>980</v>
       </c>
       <c r="H24" t="s">
+        <v>458</v>
+      </c>
+      <c r="I24" s="1" t="s">
         <v>455</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>452</v>
       </c>
       <c r="J24" s="4">
         <v>45957.51666666667</v>
@@ -3712,34 +4035,34 @@
         <v>2135</v>
       </c>
       <c r="N24" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="O24" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="P24" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="Q24" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="R24" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="S24" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="T24" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="U24" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="V24" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="W24" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
     </row>
     <row r="25" spans="1:23" ht="409.5" x14ac:dyDescent="0.25">
@@ -3747,16 +4070,16 @@
         <v>76</v>
       </c>
       <c r="B25" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="C25" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="D25" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="F25">
         <v>1200000</v>
@@ -3765,10 +4088,10 @@
         <v>480</v>
       </c>
       <c r="H25" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="J25" s="4">
         <v>45957.51666666667</v>
@@ -3783,34 +4106,34 @@
         <v>924</v>
       </c>
       <c r="N25" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="O25" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="P25" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="Q25" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="R25" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="S25" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="T25" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="U25" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="V25" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="W25" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
     </row>
     <row r="26" spans="1:23" ht="300" x14ac:dyDescent="0.25">
@@ -3818,16 +4141,16 @@
         <v>77</v>
       </c>
       <c r="B26" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C26" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D26" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="F26">
         <v>600000</v>
@@ -3836,10 +4159,10 @@
         <v>300</v>
       </c>
       <c r="H26" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="J26" s="4">
         <v>45957.51666666667</v>
@@ -3854,34 +4177,34 @@
         <v>469</v>
       </c>
       <c r="N26" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="O26" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="P26" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="Q26" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="R26" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="S26" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="T26" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="U26" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="V26" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="W26" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
     </row>
     <row r="27" spans="1:23" ht="105" x14ac:dyDescent="0.25">
@@ -3889,16 +4212,16 @@
         <v>78</v>
       </c>
       <c r="B27" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="C27" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="D27" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F27">
         <v>247000</v>
@@ -3907,10 +4230,10 @@
         <v>184</v>
       </c>
       <c r="H27" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="J27" s="4">
         <v>45957.51666666667</v>
@@ -3925,34 +4248,34 @@
         <v>77</v>
       </c>
       <c r="N27" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="O27" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="P27" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="Q27" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="R27" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="S27" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="T27" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="U27" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="V27" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="W27" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
     </row>
     <row r="28" spans="1:23" ht="409.5" x14ac:dyDescent="0.25">
@@ -3960,16 +4283,16 @@
         <v>79</v>
       </c>
       <c r="B28" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C28" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D28" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="F28">
         <v>230000</v>
@@ -3978,10 +4301,10 @@
         <v>410</v>
       </c>
       <c r="H28" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="J28" s="4">
         <v>45957.51666666667</v>
@@ -3996,34 +4319,34 @@
         <v>98</v>
       </c>
       <c r="N28" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="O28" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="P28" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="Q28" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="R28" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="S28" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="T28" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="U28" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="V28" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="W28" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
     </row>
     <row r="29" spans="1:23" ht="409.5" x14ac:dyDescent="0.25">
@@ -4031,16 +4354,16 @@
         <v>80</v>
       </c>
       <c r="B29" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="C29" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="D29" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F29">
         <v>230123</v>
@@ -4049,10 +4372,10 @@
         <v>423</v>
       </c>
       <c r="H29" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="J29" s="4">
         <v>45957.51666666667</v>
@@ -4082,16 +4405,16 @@
         <v>81</v>
       </c>
       <c r="B30" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C30" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="D30" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="F30">
         <v>230223</v>
@@ -4100,10 +4423,10 @@
         <v>457</v>
       </c>
       <c r="H30" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="J30" s="4">
         <v>45957.51666666667</v>
@@ -4118,605 +4441,2721 @@
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" ht="120" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>82</v>
       </c>
-      <c r="E31" s="1"/>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>180</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D31" t="s">
+        <v>420</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="F31">
+        <v>482000</v>
+      </c>
+      <c r="G31">
+        <v>215</v>
+      </c>
+      <c r="H31" t="s">
+        <v>547</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="J31" s="4">
+        <v>45958.666666666664</v>
+      </c>
+      <c r="K31">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
+        <v>38560</v>
+      </c>
+      <c r="L31">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
+        <v>14460</v>
+      </c>
+      <c r="M31">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
+        <v>14460</v>
+      </c>
+      <c r="N31"/>
+      <c r="O31"/>
+      <c r="P31"/>
+      <c r="Q31"/>
+      <c r="R31"/>
+      <c r="S31"/>
+      <c r="T31"/>
+      <c r="U31"/>
+      <c r="V31"/>
+      <c r="W31"/>
+    </row>
+    <row r="32" spans="1:23" ht="75" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>83</v>
       </c>
-      <c r="E32" s="1"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>434</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="D32" t="s">
+        <v>420</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="F32">
+        <v>247000</v>
+      </c>
+      <c r="G32">
+        <v>184</v>
+      </c>
+      <c r="H32" t="s">
+        <v>548</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="J32" s="4">
+        <v>45958.666666666664</v>
+      </c>
+      <c r="K32">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
+        <v>34580</v>
+      </c>
+      <c r="L32">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
+        <v>14820</v>
+      </c>
+      <c r="M32">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
+        <v>7410</v>
+      </c>
+      <c r="N32"/>
+      <c r="O32"/>
+      <c r="P32"/>
+      <c r="Q32"/>
+      <c r="R32"/>
+      <c r="S32"/>
+      <c r="T32"/>
+      <c r="U32"/>
+      <c r="V32"/>
+      <c r="W32"/>
+    </row>
+    <row r="33" spans="1:23" ht="90" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>84</v>
       </c>
-      <c r="E33" s="1"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>186</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D33" t="s">
+        <v>283</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F33">
+        <v>205000</v>
+      </c>
+      <c r="G33">
+        <v>73</v>
+      </c>
+      <c r="H33" t="s">
+        <v>549</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="J33" s="4">
+        <v>45958.666666666664</v>
+      </c>
+      <c r="K33">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
+        <v>12300</v>
+      </c>
+      <c r="L33">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
+        <v>6150</v>
+      </c>
+      <c r="M33">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
+        <v>8200</v>
+      </c>
+      <c r="N33"/>
+      <c r="O33"/>
+      <c r="P33"/>
+      <c r="Q33"/>
+      <c r="R33"/>
+      <c r="S33"/>
+      <c r="T33"/>
+      <c r="U33"/>
+      <c r="V33"/>
+      <c r="W33"/>
+    </row>
+    <row r="34" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>85</v>
       </c>
-      <c r="E34" s="1"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>482</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="F34">
+        <v>7100</v>
+      </c>
+      <c r="G34">
+        <v>94</v>
+      </c>
+      <c r="H34" t="s">
+        <v>550</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="J34" s="4">
+        <v>45958.666666666664</v>
+      </c>
+      <c r="K34">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
+        <v>852</v>
+      </c>
+      <c r="L34">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
+        <v>568</v>
+      </c>
+      <c r="M34">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
+        <v>284</v>
+      </c>
+      <c r="N34"/>
+      <c r="O34"/>
+      <c r="P34"/>
+      <c r="Q34"/>
+      <c r="R34"/>
+      <c r="S34"/>
+      <c r="T34"/>
+      <c r="U34"/>
+      <c r="V34"/>
+      <c r="W34"/>
+    </row>
+    <row r="35" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>86</v>
       </c>
-      <c r="E35" s="1"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>482</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="F35">
+        <v>7100</v>
+      </c>
+      <c r="G35">
+        <v>94</v>
+      </c>
+      <c r="H35" t="s">
+        <v>551</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="J35" s="4">
+        <v>45958.666666666664</v>
+      </c>
+      <c r="K35">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
+        <v>923</v>
+      </c>
+      <c r="L35">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
+        <v>213</v>
+      </c>
+      <c r="M35">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
+        <v>71</v>
+      </c>
+      <c r="N35"/>
+      <c r="O35"/>
+      <c r="P35"/>
+      <c r="Q35"/>
+      <c r="R35"/>
+      <c r="S35"/>
+      <c r="T35"/>
+      <c r="U35"/>
+      <c r="V35"/>
+      <c r="W35"/>
+    </row>
+    <row r="36" spans="1:23" ht="75" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>87</v>
       </c>
-      <c r="E36" s="1"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>188</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D36" t="s">
+        <v>422</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F36">
+        <v>318000</v>
+      </c>
+      <c r="G36">
+        <v>127</v>
+      </c>
+      <c r="H36" t="s">
+        <v>552</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="J36" s="4">
+        <v>45958.666666666664</v>
+      </c>
+      <c r="K36">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
+        <v>15900</v>
+      </c>
+      <c r="L36">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
+        <v>6360</v>
+      </c>
+      <c r="M36">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
+        <v>15900</v>
+      </c>
+      <c r="N36"/>
+      <c r="O36"/>
+      <c r="P36"/>
+      <c r="Q36"/>
+      <c r="R36"/>
+      <c r="S36"/>
+      <c r="T36"/>
+      <c r="U36"/>
+      <c r="V36"/>
+      <c r="W36"/>
+    </row>
+    <row r="37" spans="1:23" ht="75" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>88</v>
       </c>
-      <c r="E37" s="1"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>274</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="F37">
+        <v>8600</v>
+      </c>
+      <c r="G37">
+        <v>168</v>
+      </c>
+      <c r="H37" t="s">
+        <v>553</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="J37" s="4">
+        <v>45958.666666666664</v>
+      </c>
+      <c r="K37">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
+        <v>1204</v>
+      </c>
+      <c r="L37">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
+        <v>172</v>
+      </c>
+      <c r="M37">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
+        <v>344</v>
+      </c>
+      <c r="N37"/>
+      <c r="O37"/>
+      <c r="P37"/>
+      <c r="Q37"/>
+      <c r="R37"/>
+      <c r="S37"/>
+      <c r="T37"/>
+      <c r="U37"/>
+      <c r="V37"/>
+      <c r="W37"/>
+    </row>
+    <row r="38" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>89</v>
       </c>
-      <c r="E38" s="1"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>190</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="F38">
+        <v>274000</v>
+      </c>
+      <c r="G38">
+        <v>101</v>
+      </c>
+      <c r="H38" t="s">
+        <v>554</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="J38" s="4">
+        <v>45958.666666666664</v>
+      </c>
+      <c r="K38">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
+        <v>32880</v>
+      </c>
+      <c r="L38">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
+        <v>13700</v>
+      </c>
+      <c r="M38">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
+        <v>13700</v>
+      </c>
+      <c r="N38"/>
+      <c r="O38"/>
+      <c r="P38"/>
+      <c r="Q38"/>
+      <c r="R38"/>
+      <c r="S38"/>
+      <c r="T38"/>
+      <c r="U38"/>
+      <c r="V38"/>
+      <c r="W38"/>
+    </row>
+    <row r="39" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>90</v>
       </c>
-      <c r="E39" s="1"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>190</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="F39">
+        <v>274000</v>
+      </c>
+      <c r="G39">
+        <v>101</v>
+      </c>
+      <c r="H39" t="s">
+        <v>476</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="J39" s="4">
+        <v>45958.666666666664</v>
+      </c>
+      <c r="K39">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
+        <v>30140</v>
+      </c>
+      <c r="L39">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
+        <v>21920</v>
+      </c>
+      <c r="M39">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
+        <v>2740</v>
+      </c>
+      <c r="N39"/>
+      <c r="O39"/>
+      <c r="P39"/>
+      <c r="Q39"/>
+      <c r="R39"/>
+      <c r="S39"/>
+      <c r="T39"/>
+      <c r="U39"/>
+      <c r="V39"/>
+      <c r="W39"/>
+    </row>
+    <row r="40" spans="1:23" ht="60" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>91</v>
       </c>
-      <c r="E40" s="1"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>492</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="F40">
+        <v>6400</v>
+      </c>
+      <c r="G40">
+        <v>221</v>
+      </c>
+      <c r="H40" t="s">
+        <v>555</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="J40" s="4">
+        <v>45958.666666666664</v>
+      </c>
+      <c r="K40">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
+        <v>384</v>
+      </c>
+      <c r="L40">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
+        <v>384</v>
+      </c>
+      <c r="M40">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
+        <v>128</v>
+      </c>
+      <c r="N40"/>
+      <c r="O40"/>
+      <c r="P40"/>
+      <c r="Q40"/>
+      <c r="R40"/>
+      <c r="S40"/>
+      <c r="T40"/>
+      <c r="U40"/>
+      <c r="V40"/>
+      <c r="W40"/>
+    </row>
+    <row r="41" spans="1:23" ht="75" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>92</v>
       </c>
-      <c r="E41" s="1"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>184</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D41" t="s">
+        <v>282</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="F41">
+        <v>78500</v>
+      </c>
+      <c r="G41">
+        <v>411</v>
+      </c>
+      <c r="H41" t="s">
+        <v>560</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="J41" s="4">
+        <v>45958.666666666664</v>
+      </c>
+      <c r="K41">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
+        <v>10990</v>
+      </c>
+      <c r="L41">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
+        <v>6280</v>
+      </c>
+      <c r="M41">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
+        <v>1570</v>
+      </c>
+      <c r="N41"/>
+      <c r="O41"/>
+      <c r="P41"/>
+      <c r="Q41"/>
+      <c r="R41"/>
+      <c r="S41"/>
+      <c r="T41"/>
+      <c r="U41"/>
+      <c r="V41"/>
+      <c r="W41"/>
+    </row>
+    <row r="42" spans="1:23" ht="60" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>93</v>
       </c>
-      <c r="E42" s="1"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>273</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="F42">
+        <v>9200</v>
+      </c>
+      <c r="G42">
+        <v>356</v>
+      </c>
+      <c r="H42" t="s">
+        <v>561</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="J42" s="4">
+        <v>45958.666666666664</v>
+      </c>
+      <c r="K42">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
+        <v>920</v>
+      </c>
+      <c r="L42">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
+        <v>276</v>
+      </c>
+      <c r="M42">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
+        <v>368</v>
+      </c>
+      <c r="N42"/>
+      <c r="O42"/>
+      <c r="P42"/>
+      <c r="Q42"/>
+      <c r="R42"/>
+      <c r="S42"/>
+      <c r="T42"/>
+      <c r="U42"/>
+      <c r="V42"/>
+      <c r="W42"/>
+    </row>
+    <row r="43" spans="1:23" ht="75" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>94</v>
       </c>
-      <c r="E43" s="1"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>426</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="D43" t="s">
+        <v>281</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="F43">
+        <v>18700</v>
+      </c>
+      <c r="G43">
+        <v>312</v>
+      </c>
+      <c r="H43" t="s">
+        <v>562</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="J43" s="4">
+        <v>45958.666666666664</v>
+      </c>
+      <c r="K43">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
+        <v>2431</v>
+      </c>
+      <c r="L43">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
+        <v>374</v>
+      </c>
+      <c r="M43">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
+        <v>935</v>
+      </c>
+      <c r="N43"/>
+      <c r="O43"/>
+      <c r="P43"/>
+      <c r="Q43"/>
+      <c r="R43"/>
+      <c r="S43"/>
+      <c r="T43"/>
+      <c r="U43"/>
+      <c r="V43"/>
+      <c r="W43"/>
+    </row>
+    <row r="44" spans="1:23" ht="60" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>95</v>
       </c>
-      <c r="E44" s="1"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>182</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="F44">
+        <v>12900</v>
+      </c>
+      <c r="G44">
+        <v>280</v>
+      </c>
+      <c r="H44" t="s">
+        <v>563</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="J44" s="4">
+        <v>45958.666666666664</v>
+      </c>
+      <c r="K44">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
+        <v>1419</v>
+      </c>
+      <c r="L44">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
+        <v>1032</v>
+      </c>
+      <c r="M44">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
+        <v>645</v>
+      </c>
+      <c r="N44"/>
+      <c r="O44"/>
+      <c r="P44"/>
+      <c r="Q44"/>
+      <c r="R44"/>
+      <c r="S44"/>
+      <c r="T44"/>
+      <c r="U44"/>
+      <c r="V44"/>
+      <c r="W44"/>
+    </row>
+    <row r="45" spans="1:23" ht="75" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>96</v>
       </c>
-      <c r="E45" s="1"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>275</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D45" t="s">
+        <v>284</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="F45">
+        <v>1200000</v>
+      </c>
+      <c r="G45">
+        <v>480</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="J45" s="4">
+        <v>45958.666666666664</v>
+      </c>
+      <c r="K45">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
+        <v>168000</v>
+      </c>
+      <c r="L45">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
+        <v>36000</v>
+      </c>
+      <c r="M45">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
+        <v>60000</v>
+      </c>
+      <c r="N45"/>
+      <c r="O45"/>
+      <c r="P45"/>
+      <c r="Q45"/>
+      <c r="R45"/>
+      <c r="S45"/>
+      <c r="T45"/>
+      <c r="U45"/>
+      <c r="V45"/>
+      <c r="W45"/>
+    </row>
+    <row r="46" spans="1:23" ht="120" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>97</v>
       </c>
-      <c r="E46" s="1"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>276</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="F46">
+        <v>3100000</v>
+      </c>
+      <c r="G46">
+        <v>980</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="J46" s="4">
+        <v>45958.666666666664</v>
+      </c>
+      <c r="K46">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
+        <v>372000</v>
+      </c>
+      <c r="L46">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
+        <v>217000</v>
+      </c>
+      <c r="M46">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
+        <v>93000</v>
+      </c>
+      <c r="N46"/>
+      <c r="O46"/>
+      <c r="P46"/>
+      <c r="Q46"/>
+      <c r="R46"/>
+      <c r="S46"/>
+      <c r="T46"/>
+      <c r="U46"/>
+      <c r="V46"/>
+      <c r="W46"/>
+    </row>
+    <row r="47" spans="1:23" ht="180" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>98</v>
       </c>
-      <c r="E47" s="1"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>277</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="D47" t="s">
+        <v>418</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="F47">
+        <v>850000</v>
+      </c>
+      <c r="G47">
+        <v>620</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="J47" s="4">
+        <v>45958.666666666664</v>
+      </c>
+      <c r="K47">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
+        <v>102000</v>
+      </c>
+      <c r="L47">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
+        <v>68000</v>
+      </c>
+      <c r="M47">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
+        <v>42500</v>
+      </c>
+      <c r="N47"/>
+      <c r="O47"/>
+      <c r="P47"/>
+      <c r="Q47"/>
+      <c r="R47"/>
+      <c r="S47"/>
+      <c r="T47"/>
+      <c r="U47"/>
+      <c r="V47"/>
+      <c r="W47"/>
+    </row>
+    <row r="48" spans="1:23" ht="165" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>99</v>
       </c>
-      <c r="E48" s="1"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>279</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="D48" t="s">
+        <v>419</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="F48">
+        <v>600000</v>
+      </c>
+      <c r="G48">
+        <v>300</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="J48" s="4">
+        <v>45958.666666666664</v>
+      </c>
+      <c r="K48">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
+        <v>60000</v>
+      </c>
+      <c r="L48">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
+        <v>36000</v>
+      </c>
+      <c r="M48">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
+        <v>30000</v>
+      </c>
+      <c r="N48"/>
+      <c r="O48"/>
+      <c r="P48"/>
+      <c r="Q48"/>
+      <c r="R48"/>
+      <c r="S48"/>
+      <c r="T48"/>
+      <c r="U48"/>
+      <c r="V48"/>
+      <c r="W48"/>
+    </row>
+    <row r="49" spans="1:23" ht="165" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>100</v>
       </c>
-      <c r="E49" s="1"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>279</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="D49" t="s">
+        <v>419</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="F49">
+        <v>600000</v>
+      </c>
+      <c r="G49">
+        <v>300</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="J49" s="4">
+        <v>45958.666666666664</v>
+      </c>
+      <c r="K49">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
+        <v>72000</v>
+      </c>
+      <c r="L49">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
+        <v>24000</v>
+      </c>
+      <c r="M49">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
+        <v>24000</v>
+      </c>
+      <c r="N49"/>
+      <c r="O49"/>
+      <c r="P49"/>
+      <c r="Q49"/>
+      <c r="R49"/>
+      <c r="S49"/>
+      <c r="T49"/>
+      <c r="U49"/>
+      <c r="V49"/>
+      <c r="W49"/>
+    </row>
+    <row r="50" spans="1:23" ht="180" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>101</v>
       </c>
-      <c r="E50" s="1"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>280</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="D50" t="s">
+        <v>423</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="F50">
+        <v>230000</v>
+      </c>
+      <c r="G50">
+        <v>410</v>
+      </c>
+      <c r="H50" t="s">
+        <v>564</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="J50" s="4">
+        <v>45958.666666666664</v>
+      </c>
+      <c r="K50">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
+        <v>25300</v>
+      </c>
+      <c r="L50">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
+        <v>4600</v>
+      </c>
+      <c r="M50">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
+        <v>4600</v>
+      </c>
+      <c r="N50"/>
+      <c r="O50"/>
+      <c r="P50"/>
+      <c r="Q50"/>
+      <c r="R50"/>
+      <c r="S50"/>
+      <c r="T50"/>
+      <c r="U50"/>
+      <c r="V50"/>
+      <c r="W50"/>
+    </row>
+    <row r="51" spans="1:23" ht="180" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>102</v>
       </c>
-      <c r="E51" s="1"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>280</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="D51" t="s">
+        <v>423</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="F51">
+        <v>230000</v>
+      </c>
+      <c r="G51">
+        <v>410</v>
+      </c>
+      <c r="H51" t="s">
+        <v>565</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="J51" s="4">
+        <v>45958.666666666664</v>
+      </c>
+      <c r="K51">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
+        <v>29900</v>
+      </c>
+      <c r="L51">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
+        <v>11500</v>
+      </c>
+      <c r="M51">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
+        <v>11500</v>
+      </c>
+      <c r="N51"/>
+      <c r="O51"/>
+      <c r="P51"/>
+      <c r="Q51"/>
+      <c r="R51"/>
+      <c r="S51"/>
+      <c r="T51"/>
+      <c r="U51"/>
+      <c r="V51"/>
+      <c r="W51"/>
+    </row>
+    <row r="52" spans="1:23" ht="150" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>103</v>
       </c>
-      <c r="E52" s="1"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>470</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="D52" t="s">
+        <v>477</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="F52">
+        <v>230223</v>
+      </c>
+      <c r="G52">
+        <v>457</v>
+      </c>
+      <c r="H52" t="s">
+        <v>566</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="J52" s="4">
+        <v>45958.666666666664</v>
+      </c>
+      <c r="K52">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
+        <v>16116</v>
+      </c>
+      <c r="L52">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
+        <v>13813</v>
+      </c>
+      <c r="M52">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
+        <v>11511</v>
+      </c>
+      <c r="N52"/>
+      <c r="O52"/>
+      <c r="P52"/>
+      <c r="Q52"/>
+      <c r="R52"/>
+      <c r="S52"/>
+      <c r="T52"/>
+      <c r="U52"/>
+      <c r="V52"/>
+      <c r="W52"/>
+    </row>
+    <row r="53" spans="1:23" ht="120" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>104</v>
       </c>
-      <c r="E53" s="1"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>433</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="D53" t="s">
+        <v>457</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="F53">
+        <v>3100000</v>
+      </c>
+      <c r="G53">
+        <v>980</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="J53" s="4">
+        <v>45958.666666666664</v>
+      </c>
+      <c r="K53">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
+        <v>310000</v>
+      </c>
+      <c r="L53">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
+        <v>248000</v>
+      </c>
+      <c r="M53">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
+        <v>62000</v>
+      </c>
+      <c r="N53"/>
+      <c r="O53"/>
+      <c r="P53"/>
+      <c r="Q53"/>
+      <c r="R53"/>
+      <c r="S53"/>
+      <c r="T53"/>
+      <c r="U53"/>
+      <c r="V53"/>
+      <c r="W53"/>
+    </row>
+    <row r="54" spans="1:23" ht="75" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>105</v>
       </c>
-      <c r="E54" s="1"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>435</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="D54" t="s">
+        <v>456</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="F54">
+        <v>1200000</v>
+      </c>
+      <c r="G54">
+        <v>480</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="J54" s="4">
+        <v>45958.666666666664</v>
+      </c>
+      <c r="K54">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
+        <v>156000</v>
+      </c>
+      <c r="L54">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
+        <v>48000</v>
+      </c>
+      <c r="M54">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
+        <v>12000</v>
+      </c>
+      <c r="N54"/>
+      <c r="O54"/>
+      <c r="P54"/>
+      <c r="Q54"/>
+      <c r="R54"/>
+      <c r="S54"/>
+      <c r="T54"/>
+      <c r="U54"/>
+      <c r="V54"/>
+      <c r="W54"/>
+    </row>
+    <row r="55" spans="1:23" ht="75" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>106</v>
       </c>
-      <c r="E55" s="1"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>180</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D55" t="s">
+        <v>420</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="F55">
+        <v>482000</v>
+      </c>
+      <c r="G55">
+        <v>215</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="J55" s="4">
+        <v>45958.666666666664</v>
+      </c>
+      <c r="K55">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
+        <v>57840</v>
+      </c>
+      <c r="L55">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
+        <v>9640</v>
+      </c>
+      <c r="M55">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
+        <v>19280</v>
+      </c>
+      <c r="N55"/>
+      <c r="O55"/>
+      <c r="P55"/>
+      <c r="Q55"/>
+      <c r="R55"/>
+      <c r="S55"/>
+      <c r="T55"/>
+      <c r="U55"/>
+      <c r="V55"/>
+      <c r="W55"/>
+    </row>
+    <row r="56" spans="1:23" ht="60" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>107</v>
       </c>
-      <c r="E56" s="1"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>426</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="D56" t="s">
+        <v>281</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="F56">
+        <v>18700</v>
+      </c>
+      <c r="G56">
+        <v>312</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="J56" s="4">
+        <v>45958.666666666664</v>
+      </c>
+      <c r="K56">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
+        <v>935</v>
+      </c>
+      <c r="L56">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
+        <v>748</v>
+      </c>
+      <c r="M56">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
+        <v>935</v>
+      </c>
+      <c r="N56"/>
+      <c r="O56"/>
+      <c r="P56"/>
+      <c r="Q56"/>
+      <c r="R56"/>
+      <c r="S56"/>
+      <c r="T56"/>
+      <c r="U56"/>
+      <c r="V56"/>
+      <c r="W56"/>
+    </row>
+    <row r="57" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>108</v>
       </c>
-      <c r="E57" s="1"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>182</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="F57">
+        <v>12900</v>
+      </c>
+      <c r="G57">
+        <v>280</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="J57" s="4">
+        <v>45958.666666666664</v>
+      </c>
+      <c r="K57">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
+        <v>1032</v>
+      </c>
+      <c r="L57">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
+        <v>258</v>
+      </c>
+      <c r="M57">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
+        <v>387</v>
+      </c>
+      <c r="N57"/>
+      <c r="O57"/>
+      <c r="P57"/>
+      <c r="Q57"/>
+      <c r="R57"/>
+      <c r="S57"/>
+      <c r="T57"/>
+      <c r="U57"/>
+      <c r="V57"/>
+      <c r="W57"/>
+    </row>
+    <row r="58" spans="1:23" ht="60" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>109</v>
       </c>
-      <c r="E58" s="1"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>434</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="D58" t="s">
+        <v>420</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="F58">
+        <v>247000</v>
+      </c>
+      <c r="G58">
+        <v>184</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="J58" s="4">
+        <v>45958.666666666664</v>
+      </c>
+      <c r="K58">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
+        <v>34580</v>
+      </c>
+      <c r="L58">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
+        <v>7410</v>
+      </c>
+      <c r="M58">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
+        <v>12350</v>
+      </c>
+      <c r="N58"/>
+      <c r="O58"/>
+      <c r="P58"/>
+      <c r="Q58"/>
+      <c r="R58"/>
+      <c r="S58"/>
+      <c r="T58"/>
+      <c r="U58"/>
+      <c r="V58"/>
+      <c r="W58"/>
+    </row>
+    <row r="59" spans="1:23" ht="60" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>110</v>
       </c>
-      <c r="E59" s="1"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>186</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D59" t="s">
+        <v>283</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F59">
+        <v>205000</v>
+      </c>
+      <c r="G59">
+        <v>73</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="J59" s="4">
+        <v>45958.666666666664</v>
+      </c>
+      <c r="K59">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
+        <v>18450</v>
+      </c>
+      <c r="L59">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
+        <v>14350</v>
+      </c>
+      <c r="M59">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
+        <v>6150</v>
+      </c>
+      <c r="N59"/>
+      <c r="O59"/>
+      <c r="P59"/>
+      <c r="Q59"/>
+      <c r="R59"/>
+      <c r="S59"/>
+      <c r="T59"/>
+      <c r="U59"/>
+      <c r="V59"/>
+      <c r="W59"/>
+    </row>
+    <row r="60" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>111</v>
       </c>
-      <c r="E60" s="1"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>482</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="F60">
+        <v>7100</v>
+      </c>
+      <c r="G60">
+        <v>94</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="J60" s="4">
+        <v>45958.666666666664</v>
+      </c>
+      <c r="K60">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
+        <v>781</v>
+      </c>
+      <c r="L60">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
+        <v>284</v>
+      </c>
+      <c r="M60">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
+        <v>284</v>
+      </c>
+      <c r="N60"/>
+      <c r="O60"/>
+      <c r="P60"/>
+      <c r="Q60"/>
+      <c r="R60"/>
+      <c r="S60"/>
+      <c r="T60"/>
+      <c r="U60"/>
+      <c r="V60"/>
+      <c r="W60"/>
+    </row>
+    <row r="61" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>112</v>
       </c>
-      <c r="E61" s="1"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>188</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D61" t="s">
+        <v>422</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F61">
+        <v>318000</v>
+      </c>
+      <c r="G61">
+        <v>127</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="J61" s="4">
+        <v>45958.666666666664</v>
+      </c>
+      <c r="K61">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
+        <v>34980</v>
+      </c>
+      <c r="L61">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
+        <v>9540</v>
+      </c>
+      <c r="M61">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
+        <v>6360</v>
+      </c>
+      <c r="N61"/>
+      <c r="O61"/>
+      <c r="P61"/>
+      <c r="Q61"/>
+      <c r="R61"/>
+      <c r="S61"/>
+      <c r="T61"/>
+      <c r="U61"/>
+      <c r="V61"/>
+      <c r="W61"/>
+    </row>
+    <row r="62" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>113</v>
       </c>
-      <c r="E62" s="1"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>274</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="F62">
+        <v>8600</v>
+      </c>
+      <c r="G62">
+        <v>168</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="J62" s="4">
+        <v>45958.666666666664</v>
+      </c>
+      <c r="K62">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
+        <v>1118</v>
+      </c>
+      <c r="L62">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
+        <v>602</v>
+      </c>
+      <c r="M62">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
+        <v>430</v>
+      </c>
+      <c r="N62"/>
+      <c r="O62"/>
+      <c r="P62"/>
+      <c r="Q62"/>
+      <c r="R62"/>
+      <c r="S62"/>
+      <c r="T62"/>
+      <c r="U62"/>
+      <c r="V62"/>
+      <c r="W62"/>
+    </row>
+    <row r="63" spans="1:23" ht="60" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>114</v>
       </c>
-      <c r="E63" s="1"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>190</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="F63">
+        <v>274000</v>
+      </c>
+      <c r="G63">
+        <v>101</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="J63" s="4">
+        <v>45958.666666666664</v>
+      </c>
+      <c r="K63">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
+        <v>13700</v>
+      </c>
+      <c r="L63">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
+        <v>13700</v>
+      </c>
+      <c r="M63">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
+        <v>5480</v>
+      </c>
+      <c r="N63"/>
+      <c r="O63"/>
+      <c r="P63"/>
+      <c r="Q63"/>
+      <c r="R63"/>
+      <c r="S63"/>
+      <c r="T63"/>
+      <c r="U63"/>
+      <c r="V63"/>
+      <c r="W63"/>
+    </row>
+    <row r="64" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>115</v>
       </c>
-      <c r="E64" s="1"/>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>492</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="F64">
+        <v>6400</v>
+      </c>
+      <c r="G64">
+        <v>221</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="J64" s="4">
+        <v>45958.666666666664</v>
+      </c>
+      <c r="K64">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
+        <v>512</v>
+      </c>
+      <c r="L64">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
+        <v>320</v>
+      </c>
+      <c r="M64">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
+        <v>64</v>
+      </c>
+      <c r="N64"/>
+      <c r="O64"/>
+      <c r="P64"/>
+      <c r="Q64"/>
+      <c r="R64"/>
+      <c r="S64"/>
+      <c r="T64"/>
+      <c r="U64"/>
+      <c r="V64"/>
+      <c r="W64"/>
+    </row>
+    <row r="65" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>116</v>
       </c>
-      <c r="E65" s="1"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>184</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D65" t="s">
+        <v>282</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="F65">
+        <v>78500</v>
+      </c>
+      <c r="G65">
+        <v>411</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="J65" s="4">
+        <v>45958.666666666664</v>
+      </c>
+      <c r="K65">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
+        <v>8635</v>
+      </c>
+      <c r="L65">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
+        <v>6280</v>
+      </c>
+      <c r="M65">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
+        <v>3925</v>
+      </c>
+      <c r="N65"/>
+      <c r="O65"/>
+      <c r="P65"/>
+      <c r="Q65"/>
+      <c r="R65"/>
+      <c r="S65"/>
+      <c r="T65"/>
+      <c r="U65"/>
+      <c r="V65"/>
+      <c r="W65"/>
+    </row>
+    <row r="66" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>117</v>
       </c>
-      <c r="E66" s="1"/>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>273</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="F66">
+        <v>9200</v>
+      </c>
+      <c r="G66">
+        <v>356</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="J66" s="4">
+        <v>45958.666666666664</v>
+      </c>
+      <c r="K66">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
+        <v>828</v>
+      </c>
+      <c r="L66">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
+        <v>644</v>
+      </c>
+      <c r="M66">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
+        <v>460</v>
+      </c>
+      <c r="N66"/>
+      <c r="O66"/>
+      <c r="P66"/>
+      <c r="Q66"/>
+      <c r="R66"/>
+      <c r="S66"/>
+      <c r="T66"/>
+      <c r="U66"/>
+      <c r="V66"/>
+      <c r="W66"/>
+    </row>
+    <row r="67" spans="1:23" ht="75" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>118</v>
       </c>
-      <c r="E67" s="1"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>275</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D67" t="s">
+        <v>284</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="F67">
+        <v>1200000</v>
+      </c>
+      <c r="G67">
+        <v>480</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="J67" s="4">
+        <v>45958.666666666664</v>
+      </c>
+      <c r="K67">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
+        <v>156000</v>
+      </c>
+      <c r="L67">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
+        <v>84000</v>
+      </c>
+      <c r="M67">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
+        <v>60000</v>
+      </c>
+      <c r="N67"/>
+      <c r="O67"/>
+      <c r="P67"/>
+      <c r="Q67"/>
+      <c r="R67"/>
+      <c r="S67"/>
+      <c r="T67"/>
+      <c r="U67"/>
+      <c r="V67"/>
+      <c r="W67"/>
+    </row>
+    <row r="68" spans="1:23" ht="120" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>119</v>
       </c>
-      <c r="E68" s="1"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>276</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="F68">
+        <v>3100000</v>
+      </c>
+      <c r="G68">
+        <v>980</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="J68" s="4">
+        <v>45958.666666666664</v>
+      </c>
+      <c r="K68">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
+        <v>341000</v>
+      </c>
+      <c r="L68">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
+        <v>93000</v>
+      </c>
+      <c r="M68">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
+        <v>155000</v>
+      </c>
+      <c r="N68"/>
+      <c r="O68"/>
+      <c r="P68"/>
+      <c r="Q68"/>
+      <c r="R68"/>
+      <c r="S68"/>
+      <c r="T68"/>
+      <c r="U68"/>
+      <c r="V68"/>
+      <c r="W68"/>
+    </row>
+    <row r="69" spans="1:23" ht="180" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>120</v>
       </c>
-      <c r="E69" s="1"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>277</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="D69" t="s">
+        <v>418</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="F69">
+        <v>850000</v>
+      </c>
+      <c r="G69">
+        <v>620</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="J69" s="4">
+        <v>45958.666666666664</v>
+      </c>
+      <c r="K69">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
+        <v>102000</v>
+      </c>
+      <c r="L69">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
+        <v>68000</v>
+      </c>
+      <c r="M69">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
+        <v>42500</v>
+      </c>
+      <c r="N69"/>
+      <c r="O69"/>
+      <c r="P69"/>
+      <c r="Q69"/>
+      <c r="R69"/>
+      <c r="S69"/>
+      <c r="T69"/>
+      <c r="U69"/>
+      <c r="V69"/>
+      <c r="W69"/>
+    </row>
+    <row r="70" spans="1:23" ht="180" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>121</v>
       </c>
-      <c r="E70" s="1"/>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>280</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="D70" t="s">
+        <v>423</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="F70">
+        <v>230000</v>
+      </c>
+      <c r="G70">
+        <v>410</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="J70" s="4">
+        <v>45958.666666666664</v>
+      </c>
+      <c r="K70">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
+        <v>18400</v>
+      </c>
+      <c r="L70">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
+        <v>13800</v>
+      </c>
+      <c r="M70">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
+        <v>4600</v>
+      </c>
+      <c r="N70"/>
+      <c r="O70"/>
+      <c r="P70"/>
+      <c r="Q70"/>
+      <c r="R70"/>
+      <c r="S70"/>
+      <c r="T70"/>
+      <c r="U70"/>
+      <c r="V70"/>
+      <c r="W70"/>
+    </row>
+    <row r="71" spans="1:23" ht="120" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>122</v>
       </c>
-      <c r="E71" s="1"/>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>433</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="D71" t="s">
+        <v>457</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="F71">
+        <v>3100000</v>
+      </c>
+      <c r="G71">
+        <v>980</v>
+      </c>
+      <c r="H71" t="s">
+        <v>559</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="J71" s="4">
+        <v>45958.666666666664</v>
+      </c>
+      <c r="K71">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
+        <v>403000</v>
+      </c>
+      <c r="L71">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
+        <v>186000</v>
+      </c>
+      <c r="M71">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
+        <v>155000</v>
+      </c>
+      <c r="N71"/>
+      <c r="O71"/>
+      <c r="P71"/>
+      <c r="Q71"/>
+      <c r="R71"/>
+      <c r="S71"/>
+      <c r="T71"/>
+      <c r="U71"/>
+      <c r="V71"/>
+      <c r="W71"/>
+    </row>
+    <row r="72" spans="1:23" ht="75" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>123</v>
       </c>
-      <c r="E72" s="1"/>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>435</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="D72" t="s">
+        <v>456</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="F72">
+        <v>1200000</v>
+      </c>
+      <c r="G72">
+        <v>480</v>
+      </c>
+      <c r="H72" t="s">
+        <v>558</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="J72" s="4">
+        <v>45958.666666666664</v>
+      </c>
+      <c r="K72">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
+        <v>168000</v>
+      </c>
+      <c r="L72">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
+        <v>48000</v>
+      </c>
+      <c r="M72">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
+        <v>24000</v>
+      </c>
+      <c r="N72"/>
+      <c r="O72"/>
+      <c r="P72"/>
+      <c r="Q72"/>
+      <c r="R72"/>
+      <c r="S72"/>
+      <c r="T72"/>
+      <c r="U72"/>
+      <c r="V72"/>
+      <c r="W72"/>
+    </row>
+    <row r="73" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>124</v>
       </c>
-      <c r="E73" s="1"/>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B73" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="F73">
+        <v>1300</v>
+      </c>
+      <c r="G73">
+        <v>110</v>
+      </c>
+      <c r="H73" t="s">
+        <v>557</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="J73" s="4">
+        <v>45958.666666666664</v>
+      </c>
+      <c r="K73">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
+        <v>117</v>
+      </c>
+      <c r="L73">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
+        <v>26</v>
+      </c>
+      <c r="M73">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>125</v>
       </c>
-      <c r="E74" s="1"/>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B74" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="F74">
+        <v>1300</v>
+      </c>
+      <c r="G74">
+        <v>110</v>
+      </c>
+      <c r="H74" t="s">
+        <v>556</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="J74" s="4">
+        <v>45958.666666666664</v>
+      </c>
+      <c r="K74">
+        <v>78</v>
+      </c>
+      <c r="L74">
+        <v>20</v>
+      </c>
+      <c r="M74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>126</v>
       </c>
       <c r="E75" s="1"/>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J75" s="4">
+        <v>45958.666666666664</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>127</v>
       </c>
       <c r="E76" s="1"/>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J76" s="4">
+        <v>45958.666666666664</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>128</v>
       </c>
       <c r="E77" s="1"/>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J77" s="4">
+        <v>45958.666666666664</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>129</v>
       </c>
       <c r="E78" s="1"/>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J78" s="4">
+        <v>45958.666666666664</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>130</v>
       </c>
       <c r="E79" s="1"/>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J79" s="4">
+        <v>45958.666666666664</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>131</v>
       </c>
       <c r="E80" s="1"/>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J80" s="4">
+        <v>45958.666666666664</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>132</v>
       </c>
       <c r="E81" s="1"/>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J81" s="4">
+        <v>45958.666666666664</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>133</v>
       </c>
       <c r="E82" s="1"/>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J82" s="4">
+        <v>45958.666666666664</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>134</v>
       </c>
       <c r="E83" s="1"/>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J83" s="4">
+        <v>45958.666666666664</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>135</v>
       </c>
       <c r="E84" s="1"/>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J84" s="4">
+        <v>45958.666666666664</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>136</v>
       </c>
       <c r="E85" s="1"/>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J85" s="4">
+        <v>45958.666666666664</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>137</v>
       </c>
       <c r="E86" s="1"/>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J86" s="4">
+        <v>45958.666666666664</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>138</v>
       </c>
       <c r="E87" s="1"/>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J87" s="4">
+        <v>45958.666666666664</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>139</v>
       </c>
       <c r="E88" s="1"/>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J88" s="4">
+        <v>45958.666666666664</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>140</v>
       </c>
       <c r="E89" s="1"/>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J89" s="4">
+        <v>45958.666666666664</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>141</v>
       </c>
       <c r="E90" s="1"/>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J90" s="4">
+        <v>45958.666666666664</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>142</v>
       </c>
       <c r="E91" s="1"/>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J91" s="4">
+        <v>45958.666666666664</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>143</v>
       </c>
       <c r="E92" s="1"/>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J92" s="4">
+        <v>45958.666666666664</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>144</v>
       </c>
       <c r="E93" s="1"/>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J93" s="4">
+        <v>45958.666666666664</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>145</v>
       </c>
       <c r="E94" s="1"/>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J94" s="4">
+        <v>45958.666666666664</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>146</v>
       </c>
       <c r="E95" s="1"/>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J95" s="4">
+        <v>45958.666666666664</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>147</v>
       </c>
       <c r="E96" s="1"/>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J96" s="4">
+        <v>45958.666666666664</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>148</v>
       </c>
       <c r="E97" s="1"/>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J97" s="4">
+        <v>45958.666666666664</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>149</v>
       </c>
       <c r="E98" s="1"/>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J98" s="4">
+        <v>45958.666666666664</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>150</v>
       </c>
       <c r="E99" s="1"/>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J99" s="4">
+        <v>45958.666666666664</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>151</v>
       </c>
       <c r="E100" s="1"/>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J100" s="4">
+        <v>45958.666666666664</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>152</v>
       </c>
       <c r="E101" s="1"/>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J101" s="4">
+        <v>45958.666666666664</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>153</v>
       </c>
       <c r="E102" s="1"/>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J102" s="4">
+        <v>45958.666666666664</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>154</v>
       </c>
       <c r="E103" s="1"/>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J103" s="4">
+        <v>45958.666666666664</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>155</v>
       </c>
       <c r="E104" s="1"/>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J104" s="4">
+        <v>45958.666666666664</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>156</v>
       </c>
       <c r="E105" s="1"/>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J105" s="4">
+        <v>45958.666666666664</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>157</v>
       </c>
       <c r="E106" s="1"/>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J106" s="4">
+        <v>45958.666666666664</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>158</v>
       </c>
       <c r="E107" s="1"/>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J107" s="4">
+        <v>45958.666666666664</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>159</v>
       </c>
       <c r="E108" s="1"/>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J108" s="4">
+        <v>45958.666666666664</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>160</v>
       </c>
       <c r="E109" s="1"/>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J109" s="4">
+        <v>45958.666666666664</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>161</v>
       </c>
       <c r="E110" s="1"/>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J110" s="4">
+        <v>45958.666666666664</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>162</v>
       </c>
       <c r="E111" s="1"/>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J111" s="4">
+        <v>45958.666666666664</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>163</v>
       </c>
       <c r="E112" s="1"/>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J112" s="4">
+        <v>45958.666666666664</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>164</v>
       </c>
       <c r="E113" s="1"/>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J113" s="4">
+        <v>45958.666666666664</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>165</v>
       </c>
       <c r="E114" s="1"/>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J114" s="4">
+        <v>45958.666666666664</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>166</v>
       </c>
       <c r="E115" s="1"/>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J115" s="4">
+        <v>45958.666666666664</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>167</v>
       </c>
       <c r="E116" s="1"/>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J116" s="4">
+        <v>45958.666666666664</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>168</v>
       </c>
       <c r="E117" s="1"/>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J117" s="4">
+        <v>45958.666666666664</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>169</v>
       </c>
       <c r="E118" s="1"/>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J118" s="4">
+        <v>45958.666666666664</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>170</v>
       </c>
       <c r="E119" s="1"/>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J119" s="4">
+        <v>45958.666666666664</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>171</v>
       </c>
       <c r="E120" s="1"/>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J120" s="4">
+        <v>45958.666666666664</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>172</v>
       </c>
       <c r="E121" s="1"/>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J121" s="4">
+        <v>45958.666666666664</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>173</v>
       </c>
       <c r="E122" s="1"/>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J122" s="4">
+        <v>45958.666666666664</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>174</v>
       </c>
       <c r="E123" s="1"/>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J123" s="4">
+        <v>45958.666666666664</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>175</v>
       </c>
       <c r="E124" s="1"/>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J124" s="4">
+        <v>45958.666666666664</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>176</v>
       </c>
       <c r="E125" s="1"/>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J125" s="4">
+        <v>45958.666666666664</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>177</v>
       </c>
       <c r="E126" s="1"/>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J126" s="4">
+        <v>45958.666666666664</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>178</v>
       </c>
       <c r="E127" s="1"/>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J127" s="4">
+        <v>45958.666666666664</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>179</v>
       </c>
       <c r="E128" s="1"/>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>180</v>
-      </c>
-      <c r="E129" s="1"/>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>181</v>
-      </c>
-      <c r="E130" s="1"/>
+      <c r="J128" s="4">
+        <v>45958.666666666664</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/insta_clip/data/posts.xlsx
+++ b/insta_clip/data/posts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\srest\PycharmProjects\insta_clip\insta_clip\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76A34436-38A5-45B8-9593-8C4A6F99B569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC6B44CF-1BF6-45C8-8ACA-4ABF1CC1148A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="582">
   <si>
     <t>post_id</t>
   </si>
@@ -1868,6 +1868,94 @@
   </si>
   <si>
     <t>/static/images/jose_simoes_post_2.jpeg</t>
+  </si>
+  <si>
+    <t>ELEIÇÕES FILTO 2024: CHEGOU A HORA DE DECIDIR O FUTURO DA NOSSA REGIÃO. 🗳️
+Entre 03 e 07 de novembro, vocês vão às urnas para escolher quem vai liderar a FILTO nos próximos anos. E essa NÃO é uma eleição qualquer. É uma decisão sobre QUE CAMINHO queremos seguir.
+Há quem prefira recuar. Moderar o tom. Abandonar quem ainda luta pela LIBERDADE e pela PROSPERIDADE que nos foi negada por décadas.
+EU ESCOLHI OUTRO CAMINHO.
+Desde que assumi a presidência da FILTO, deixei claro: não haverá prosperidade econômica e social real na nossa região enquanto PERUÍBE não for LIVRE.
+E isso significa MANTER NOSSO COMPROMISSO com o MPL. Significa continuar financiando a luta pela independência até que ela se CONCRETIZE.
+Meu oponente, Tobias Inácio Neto, vem fazendo campanha com discurso "moderado". Bonito nas palavras, vazio nas ações. Ele diz que "pujança econômica não vem de ações armadas".
+EU DIGO O CONTRÁRIO:
+Pujança econômica não vem de submissão. Não vem de aceitar migalhas. Não vem de negociar nossa dignidade em mesas onde NUNCA fomos respeitados.
+A história mostra: povos que conquistaram sua autodeterminação LUTARAM por ela. E nós não seremos exceção.</t>
+  </si>
+  <si>
+    <t>rodrigo_abelardo</t>
+  </si>
+  <si>
+    <t>Rodrigo Velásquez Abelardo</t>
+  </si>
+  <si>
+    <t>Rodrigo Velásquez Abelardo
+Presidente da FILTO | Candidato à Reeleição
+Federação dos Interesses de TOPÁZIO
+Compromisso com PERUÍBE LIVRE
+Prosperidade vem da liberdade, não da submissão
+📍 Região de Peruíbe - TOPÁZIO</t>
+  </si>
+  <si>
+    <t>ELEIÇÕES FILTO 2024: É HORA DE ESCOLHER O FUTURO COM RESPONSABILIDADE. 🗳️
+Entre 03 e 07 de novembro, nossa região decide os rumos da FILTO. E essa decisão vai além de discursos inflamados ou promessas vazias. É sobre RESULTADOS REAIS para quem vive, trabalha e constrói aqui todos os dias.
+Meu adversário, Rodrigo Velásquez Abelardo, quer continuar comprometendo recursos da federação com financiamento indefinido ao MPL. Ele acredita que prosperidade vem de "ações armadas" e confronto permanente.
+EU ACREDITO EM OUTRO CAMINHO.
+Acredito que a PUJANÇA ECONÔMICA da nossa região não pode depender de conflitos que drenam nossos recursos, afastam investimentos e colocam vidas em risco.</t>
+  </si>
+  <si>
+    <t>Tobias Inácio Neto</t>
+  </si>
+  <si>
+    <t>tobias_inacio</t>
+  </si>
+  <si>
+    <t>Tobias Inácio Neto
+Candidato a Presidente da FILTO
+Federação dos Interesses de TOPÁZIO
+Desenvolvimento real, prosperidade com paz
+Mudança responsável para nossa região</t>
+  </si>
+  <si>
+    <t>/static/images/rodrigo_abelardo_post_1.png</t>
+  </si>
+  <si>
+    <t>/static/images/tobias_inacio_post_1.png</t>
+  </si>
+  <si>
+    <t>Lucas Santos
+2º Secretário Executivo | FILTO
+Controle Financeiro Interino
+Gestão transparente e responsável
+Alinhado com Tobias Inácio Neto
+Os números não mentem
+📊 Federação TOPÁZIO
+📍 Região de Peruíbe</t>
+  </si>
+  <si>
+    <t>lucas_santos</t>
+  </si>
+  <si>
+    <t>Lucas Santos</t>
+  </si>
+  <si>
+    <t>Como 2º Secretário Executivo, acabo de assumir INTERINAMENTE o controle financeiro da FILTO. E o que encontrei precisa ser dito com CLAREZA.
+Nos últimos anos, nossa federação comprometeu MILHÕES em financiamento ao MPL. Recursos que saem dos nossos associados, das nossas empresas, do suor de quem trabalha nesta região.
+E o retorno? Onde está a prosperidade prometida?
+VAMOS AOS NÚMEROS:
+Enquanto despejamos recursos em "ações estratégicas" e "apoio logístico ao movimento", temos:
+❌ Escolas sem reforma há anos
+❌ Estradas em condições precárias
+❌ Pequenos produtores sem crédito
+❌ Jovens sem perspectiva de emprego
+❌ Infraestrutura sucateada
+NÃO É SUSTENTÁVEL. NÃO É INTELIGENTE.
+Como gestor financeiro, minha responsabilidade é com os NÚMEROS, não com discursos. E os números mostram uma federação SANGRANDO recursos para um projeto sem fim definido.
+Entre 03 e 07 de novembro, vocês vão decidir: continuamos nessa espiral de dependência e desperdício, ou mudamos o rumo?
+MINHA POSIÇÃO É TÉCNICA, MAS TAMBÉM É POLÍTICA:
+Alinho-me com a candidatura de TOBIAS INÁCIO NETO porque acredito em gestão RESPONSÁVEL. Porque acredito que prosperidade se constrói com INVESTIMENTO PRODUTIVO, não com cheques em branco para conflitos sem horizonte.</t>
+  </si>
+  <si>
+    <t>/static/images/lucas_santos_post_1.png</t>
   </si>
 </sst>
 </file>
@@ -2376,8 +2464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H53" sqref="H53"/>
+    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H78" sqref="H78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4474,15 +4562,15 @@
       </c>
       <c r="K31">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
-        <v>38560</v>
+        <v>67480</v>
       </c>
       <c r="L31">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
-        <v>14460</v>
+        <v>19280</v>
       </c>
       <c r="M31">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
-        <v>14460</v>
+        <v>4820</v>
       </c>
       <c r="N31"/>
       <c r="O31"/>
@@ -4528,11 +4616,11 @@
       </c>
       <c r="K32">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
-        <v>34580</v>
+        <v>27170</v>
       </c>
       <c r="L32">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
-        <v>14820</v>
+        <v>9880</v>
       </c>
       <c r="M32">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
@@ -4586,7 +4674,7 @@
       </c>
       <c r="L33">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
-        <v>6150</v>
+        <v>10250</v>
       </c>
       <c r="M33">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
@@ -4637,11 +4725,11 @@
       </c>
       <c r="L34">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
-        <v>568</v>
+        <v>426</v>
       </c>
       <c r="M34">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
-        <v>284</v>
+        <v>142</v>
       </c>
       <c r="N34"/>
       <c r="O34"/>
@@ -4684,15 +4772,15 @@
       </c>
       <c r="K35">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
-        <v>923</v>
+        <v>994</v>
       </c>
       <c r="L35">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
+        <v>497</v>
+      </c>
+      <c r="M35">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
         <v>213</v>
-      </c>
-      <c r="M35">
-        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
-        <v>71</v>
       </c>
       <c r="N35"/>
       <c r="O35"/>
@@ -4738,15 +4826,15 @@
       </c>
       <c r="K36">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
-        <v>15900</v>
+        <v>22260</v>
       </c>
       <c r="L36">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
-        <v>6360</v>
+        <v>19080</v>
       </c>
       <c r="M36">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
-        <v>15900</v>
+        <v>3180</v>
       </c>
       <c r="N36"/>
       <c r="O36"/>
@@ -4789,7 +4877,7 @@
       </c>
       <c r="K37">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
-        <v>1204</v>
+        <v>774</v>
       </c>
       <c r="L37">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
@@ -4797,7 +4885,7 @@
       </c>
       <c r="M37">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
-        <v>344</v>
+        <v>86</v>
       </c>
       <c r="N37"/>
       <c r="O37"/>
@@ -4840,15 +4928,15 @@
       </c>
       <c r="K38">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
-        <v>32880</v>
+        <v>19180</v>
       </c>
       <c r="L38">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
-        <v>13700</v>
+        <v>5480</v>
       </c>
       <c r="M38">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
-        <v>13700</v>
+        <v>2740</v>
       </c>
       <c r="N38"/>
       <c r="O38"/>
@@ -4891,15 +4979,15 @@
       </c>
       <c r="K39">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
-        <v>30140</v>
+        <v>24660</v>
       </c>
       <c r="L39">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
-        <v>21920</v>
+        <v>5480</v>
       </c>
       <c r="M39">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
-        <v>2740</v>
+        <v>13700</v>
       </c>
       <c r="N39"/>
       <c r="O39"/>
@@ -4942,15 +5030,15 @@
       </c>
       <c r="K40">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
-        <v>384</v>
+        <v>576</v>
       </c>
       <c r="L40">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
-        <v>384</v>
+        <v>448</v>
       </c>
       <c r="M40">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
-        <v>128</v>
+        <v>192</v>
       </c>
       <c r="N40"/>
       <c r="O40"/>
@@ -4996,15 +5084,15 @@
       </c>
       <c r="K41">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
-        <v>10990</v>
+        <v>11775</v>
       </c>
       <c r="L41">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
-        <v>6280</v>
+        <v>1570</v>
       </c>
       <c r="M41">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
-        <v>1570</v>
+        <v>2355</v>
       </c>
       <c r="N41"/>
       <c r="O41"/>
@@ -5047,7 +5135,7 @@
       </c>
       <c r="K42">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
-        <v>920</v>
+        <v>1104</v>
       </c>
       <c r="L42">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
@@ -5055,7 +5143,7 @@
       </c>
       <c r="M42">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
-        <v>368</v>
+        <v>184</v>
       </c>
       <c r="N42"/>
       <c r="O42"/>
@@ -5101,11 +5189,11 @@
       </c>
       <c r="K43">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
-        <v>2431</v>
+        <v>2618</v>
       </c>
       <c r="L43">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
-        <v>374</v>
+        <v>561</v>
       </c>
       <c r="M43">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
@@ -5152,7 +5240,7 @@
       </c>
       <c r="K44">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
-        <v>1419</v>
+        <v>903</v>
       </c>
       <c r="L44">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
@@ -5160,7 +5248,7 @@
       </c>
       <c r="M44">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
-        <v>645</v>
+        <v>516</v>
       </c>
       <c r="N44"/>
       <c r="O44"/>
@@ -5203,15 +5291,15 @@
       </c>
       <c r="K45">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
-        <v>168000</v>
+        <v>108000</v>
       </c>
       <c r="L45">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
-        <v>36000</v>
+        <v>48000</v>
       </c>
       <c r="M45">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
-        <v>60000</v>
+        <v>12000</v>
       </c>
       <c r="N45"/>
       <c r="O45"/>
@@ -5251,15 +5339,15 @@
       </c>
       <c r="K46">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
-        <v>372000</v>
+        <v>248000</v>
       </c>
       <c r="L46">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
-        <v>217000</v>
+        <v>248000</v>
       </c>
       <c r="M46">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
-        <v>93000</v>
+        <v>31000</v>
       </c>
       <c r="N46"/>
       <c r="O46"/>
@@ -5302,15 +5390,15 @@
       </c>
       <c r="K47">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
-        <v>102000</v>
+        <v>42500</v>
       </c>
       <c r="L47">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
-        <v>68000</v>
+        <v>34000</v>
       </c>
       <c r="M47">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
-        <v>42500</v>
+        <v>17000</v>
       </c>
       <c r="N47"/>
       <c r="O47"/>
@@ -5353,15 +5441,15 @@
       </c>
       <c r="K48">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
-        <v>60000</v>
+        <v>54000</v>
       </c>
       <c r="L48">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
-        <v>36000</v>
+        <v>30000</v>
       </c>
       <c r="M48">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
-        <v>30000</v>
+        <v>12000</v>
       </c>
       <c r="N48"/>
       <c r="O48"/>
@@ -5404,15 +5492,15 @@
       </c>
       <c r="K49">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
-        <v>72000</v>
+        <v>66000</v>
       </c>
       <c r="L49">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="M49">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="N49"/>
       <c r="O49"/>
@@ -5462,11 +5550,11 @@
       </c>
       <c r="L50">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
-        <v>4600</v>
+        <v>6900</v>
       </c>
       <c r="M50">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
-        <v>4600</v>
+        <v>2300</v>
       </c>
       <c r="N50"/>
       <c r="O50"/>
@@ -5512,15 +5600,15 @@
       </c>
       <c r="K51">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
-        <v>29900</v>
+        <v>16100</v>
       </c>
       <c r="L51">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
-        <v>11500</v>
+        <v>18400</v>
       </c>
       <c r="M51">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
-        <v>11500</v>
+        <v>6900</v>
       </c>
       <c r="N51"/>
       <c r="O51"/>
@@ -5566,11 +5654,11 @@
       </c>
       <c r="K52">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
-        <v>16116</v>
+        <v>34533</v>
       </c>
       <c r="L52">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
-        <v>13813</v>
+        <v>6907</v>
       </c>
       <c r="M52">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
@@ -5621,7 +5709,7 @@
       </c>
       <c r="L53">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
-        <v>248000</v>
+        <v>93000</v>
       </c>
       <c r="M53">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
@@ -5668,15 +5756,15 @@
       </c>
       <c r="K54">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
-        <v>156000</v>
+        <v>132000</v>
       </c>
       <c r="L54">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
-        <v>48000</v>
+        <v>24000</v>
       </c>
       <c r="M54">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
-        <v>12000</v>
+        <v>24000</v>
       </c>
       <c r="N54"/>
       <c r="O54"/>
@@ -5719,11 +5807,11 @@
       </c>
       <c r="K55">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
-        <v>57840</v>
+        <v>48200</v>
       </c>
       <c r="L55">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
-        <v>9640</v>
+        <v>24100</v>
       </c>
       <c r="M55">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
@@ -5770,15 +5858,15 @@
       </c>
       <c r="K56">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
-        <v>935</v>
+        <v>2057</v>
       </c>
       <c r="L56">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
-        <v>748</v>
+        <v>374</v>
       </c>
       <c r="M56">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
-        <v>935</v>
+        <v>561</v>
       </c>
       <c r="N56"/>
       <c r="O56"/>
@@ -5818,15 +5906,15 @@
       </c>
       <c r="K57">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
+        <v>645</v>
+      </c>
+      <c r="L57">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
         <v>1032</v>
       </c>
-      <c r="L57">
-        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
-        <v>258</v>
-      </c>
       <c r="M57">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
-        <v>387</v>
+        <v>516</v>
       </c>
       <c r="N57"/>
       <c r="O57"/>
@@ -5869,15 +5957,15 @@
       </c>
       <c r="K58">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
-        <v>34580</v>
+        <v>27170</v>
       </c>
       <c r="L58">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
+        <v>19760</v>
+      </c>
+      <c r="M58">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
         <v>7410</v>
-      </c>
-      <c r="M58">
-        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
-        <v>12350</v>
       </c>
       <c r="N58"/>
       <c r="O58"/>
@@ -5920,15 +6008,15 @@
       </c>
       <c r="K59">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
-        <v>18450</v>
+        <v>14350</v>
       </c>
       <c r="L59">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
-        <v>14350</v>
+        <v>4100</v>
       </c>
       <c r="M59">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
-        <v>6150</v>
+        <v>4100</v>
       </c>
       <c r="N59"/>
       <c r="O59"/>
@@ -5968,7 +6056,7 @@
       </c>
       <c r="K60">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
-        <v>781</v>
+        <v>355</v>
       </c>
       <c r="L60">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
@@ -5976,7 +6064,7 @@
       </c>
       <c r="M60">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
-        <v>284</v>
+        <v>71</v>
       </c>
       <c r="N60"/>
       <c r="O60"/>
@@ -6019,15 +6107,15 @@
       </c>
       <c r="K61">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
-        <v>34980</v>
+        <v>22260</v>
       </c>
       <c r="L61">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
-        <v>9540</v>
+        <v>25440</v>
       </c>
       <c r="M61">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
-        <v>6360</v>
+        <v>12720</v>
       </c>
       <c r="N61"/>
       <c r="O61"/>
@@ -6067,7 +6155,7 @@
       </c>
       <c r="K62">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
-        <v>1118</v>
+        <v>1204</v>
       </c>
       <c r="L62">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
@@ -6075,7 +6163,7 @@
       </c>
       <c r="M62">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
-        <v>430</v>
+        <v>172</v>
       </c>
       <c r="N62"/>
       <c r="O62"/>
@@ -6115,15 +6203,15 @@
       </c>
       <c r="K63">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
+        <v>19180</v>
+      </c>
+      <c r="L63">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
         <v>13700</v>
       </c>
-      <c r="L63">
-        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
-        <v>13700</v>
-      </c>
       <c r="M63">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
-        <v>5480</v>
+        <v>2740</v>
       </c>
       <c r="N63"/>
       <c r="O63"/>
@@ -6171,7 +6259,7 @@
       </c>
       <c r="M64">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
-        <v>64</v>
+        <v>256</v>
       </c>
       <c r="N64"/>
       <c r="O64"/>
@@ -6214,15 +6302,15 @@
       </c>
       <c r="K65">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
-        <v>8635</v>
+        <v>10205</v>
       </c>
       <c r="L65">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
-        <v>6280</v>
+        <v>3140</v>
       </c>
       <c r="M65">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
-        <v>3925</v>
+        <v>1570</v>
       </c>
       <c r="N65"/>
       <c r="O65"/>
@@ -6262,15 +6350,15 @@
       </c>
       <c r="K66">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
-        <v>828</v>
+        <v>460</v>
       </c>
       <c r="L66">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
-        <v>644</v>
+        <v>460</v>
       </c>
       <c r="M66">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
-        <v>460</v>
+        <v>92</v>
       </c>
       <c r="N66"/>
       <c r="O66"/>
@@ -6313,11 +6401,11 @@
       </c>
       <c r="K67">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
-        <v>156000</v>
+        <v>108000</v>
       </c>
       <c r="L67">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
-        <v>84000</v>
+        <v>48000</v>
       </c>
       <c r="M67">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
@@ -6361,15 +6449,15 @@
       </c>
       <c r="K68">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
-        <v>341000</v>
+        <v>403000</v>
       </c>
       <c r="L68">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
-        <v>93000</v>
+        <v>248000</v>
       </c>
       <c r="M68">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
-        <v>155000</v>
+        <v>31000</v>
       </c>
       <c r="N68"/>
       <c r="O68"/>
@@ -6412,15 +6500,15 @@
       </c>
       <c r="K69">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
-        <v>102000</v>
+        <v>59500</v>
       </c>
       <c r="L69">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
-        <v>68000</v>
+        <v>51000</v>
       </c>
       <c r="M69">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
-        <v>42500</v>
+        <v>25500</v>
       </c>
       <c r="N69"/>
       <c r="O69"/>
@@ -6463,15 +6551,15 @@
       </c>
       <c r="K70">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
-        <v>18400</v>
+        <v>13800</v>
       </c>
       <c r="L70">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
-        <v>13800</v>
+        <v>4600</v>
       </c>
       <c r="M70">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
-        <v>4600</v>
+        <v>9200</v>
       </c>
       <c r="N70"/>
       <c r="O70"/>
@@ -6517,15 +6605,15 @@
       </c>
       <c r="K71">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
-        <v>403000</v>
+        <v>310000</v>
       </c>
       <c r="L71">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
-        <v>186000</v>
+        <v>93000</v>
       </c>
       <c r="M71">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
-        <v>155000</v>
+        <v>31000</v>
       </c>
       <c r="N71"/>
       <c r="O71"/>
@@ -6575,11 +6663,11 @@
       </c>
       <c r="L72">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
+        <v>60000</v>
+      </c>
+      <c r="M72">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
         <v>48000</v>
-      </c>
-      <c r="M72">
-        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
-        <v>24000</v>
       </c>
       <c r="N72"/>
       <c r="O72"/>
@@ -6626,11 +6714,11 @@
       </c>
       <c r="L73">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="M73">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
-        <v>13</v>
+        <v>52</v>
       </c>
     </row>
     <row r="74" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
@@ -6662,40 +6750,139 @@
         <v>45958.666666666664</v>
       </c>
       <c r="K74">
-        <v>78</v>
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
+        <v>65</v>
       </c>
       <c r="L74">
-        <v>20</v>
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
+        <v>91</v>
       </c>
       <c r="M74">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>126</v>
       </c>
-      <c r="E75" s="1"/>
+      <c r="B75" s="5" t="s">
+        <v>568</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>569</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="F75">
+        <v>1300</v>
+      </c>
+      <c r="G75">
+        <v>110</v>
+      </c>
+      <c r="H75" t="s">
+        <v>575</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>567</v>
+      </c>
       <c r="J75" s="4">
         <v>45958.666666666664</v>
       </c>
-    </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="K75">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
+        <v>195</v>
+      </c>
+      <c r="L75">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
+        <v>52</v>
+      </c>
+      <c r="M75">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23" ht="255.75" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>127</v>
       </c>
-      <c r="E76" s="1"/>
+      <c r="B76" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="F76">
+        <v>1300</v>
+      </c>
+      <c r="G76">
+        <v>110</v>
+      </c>
+      <c r="H76" t="s">
+        <v>576</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>571</v>
+      </c>
       <c r="J76" s="4">
         <v>45958.666666666664</v>
       </c>
-    </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="K76">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
+        <v>156</v>
+      </c>
+      <c r="L76">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
+        <v>52</v>
+      </c>
+      <c r="M76">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>128</v>
       </c>
-      <c r="E77" s="1"/>
+      <c r="B77" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="F77">
+        <v>362</v>
+      </c>
+      <c r="G77">
+        <v>112</v>
+      </c>
+      <c r="H77" t="s">
+        <v>581</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>580</v>
+      </c>
       <c r="J77" s="4">
         <v>45958.666666666664</v>
+      </c>
+      <c r="K77">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
+        <v>36</v>
+      </c>
+      <c r="L77">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
+        <v>7</v>
+      </c>
+      <c r="M77">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
+        <v>14</v>
       </c>
     </row>
     <row r="78" spans="1:23" x14ac:dyDescent="0.25">
@@ -6706,6 +6893,18 @@
       <c r="J78" s="4">
         <v>45958.666666666664</v>
       </c>
+      <c r="K78">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="79" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
@@ -6715,6 +6914,18 @@
       <c r="J79" s="4">
         <v>45958.666666666664</v>
       </c>
+      <c r="K79">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="80" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
@@ -6724,8 +6935,20 @@
       <c r="J80" s="4">
         <v>45958.666666666664</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K80">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>132</v>
       </c>
@@ -6733,8 +6956,20 @@
       <c r="J81" s="4">
         <v>45958.666666666664</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K81">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>133</v>
       </c>
@@ -6742,8 +6977,20 @@
       <c r="J82" s="4">
         <v>45958.666666666664</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K82">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>134</v>
       </c>
@@ -6751,8 +6998,20 @@
       <c r="J83" s="4">
         <v>45958.666666666664</v>
       </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K83">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="M83">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>135</v>
       </c>
@@ -6760,8 +7019,20 @@
       <c r="J84" s="4">
         <v>45958.666666666664</v>
       </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K84">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L84">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="M84">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>136</v>
       </c>
@@ -6769,8 +7040,20 @@
       <c r="J85" s="4">
         <v>45958.666666666664</v>
       </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K85">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L85">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="M85">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>137</v>
       </c>
@@ -6778,8 +7061,20 @@
       <c r="J86" s="4">
         <v>45958.666666666664</v>
       </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K86">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L86">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="M86">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>138</v>
       </c>
@@ -6787,8 +7082,20 @@
       <c r="J87" s="4">
         <v>45958.666666666664</v>
       </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K87">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L87">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="M87">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>139</v>
       </c>
@@ -6796,8 +7103,20 @@
       <c r="J88" s="4">
         <v>45958.666666666664</v>
       </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K88">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L88">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="M88">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>140</v>
       </c>
@@ -6805,8 +7124,20 @@
       <c r="J89" s="4">
         <v>45958.666666666664</v>
       </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K89">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L89">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="M89">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>141</v>
       </c>
@@ -6814,8 +7145,20 @@
       <c r="J90" s="4">
         <v>45958.666666666664</v>
       </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K90">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L90">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="M90">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>142</v>
       </c>
@@ -6823,8 +7166,20 @@
       <c r="J91" s="4">
         <v>45958.666666666664</v>
       </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K91">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L91">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="M91">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>143</v>
       </c>
@@ -6832,8 +7187,20 @@
       <c r="J92" s="4">
         <v>45958.666666666664</v>
       </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K92">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L92">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="M92">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>144</v>
       </c>
@@ -6841,8 +7208,20 @@
       <c r="J93" s="4">
         <v>45958.666666666664</v>
       </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K93">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L93">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="M93">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>145</v>
       </c>
@@ -6850,8 +7229,20 @@
       <c r="J94" s="4">
         <v>45958.666666666664</v>
       </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K94">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L94">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="M94">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>146</v>
       </c>
@@ -6859,8 +7250,20 @@
       <c r="J95" s="4">
         <v>45958.666666666664</v>
       </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K95">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L95">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="M95">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>147</v>
       </c>
@@ -6868,8 +7271,20 @@
       <c r="J96" s="4">
         <v>45958.666666666664</v>
       </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K96">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="M96">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>148</v>
       </c>
@@ -6877,8 +7292,20 @@
       <c r="J97" s="4">
         <v>45958.666666666664</v>
       </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K97">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L97">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="M97">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>149</v>
       </c>
@@ -6886,8 +7313,20 @@
       <c r="J98" s="4">
         <v>45958.666666666664</v>
       </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K98">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L98">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="M98">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>150</v>
       </c>
@@ -6895,8 +7334,20 @@
       <c r="J99" s="4">
         <v>45958.666666666664</v>
       </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K99">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L99">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="M99">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>151</v>
       </c>
@@ -6904,8 +7355,20 @@
       <c r="J100" s="4">
         <v>45958.666666666664</v>
       </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K100">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="M100">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>152</v>
       </c>
@@ -6913,8 +7376,20 @@
       <c r="J101" s="4">
         <v>45958.666666666664</v>
       </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K101">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L101">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="M101">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>153</v>
       </c>
@@ -6922,8 +7397,20 @@
       <c r="J102" s="4">
         <v>45958.666666666664</v>
       </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K102">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="M102">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>154</v>
       </c>
@@ -6931,8 +7418,20 @@
       <c r="J103" s="4">
         <v>45958.666666666664</v>
       </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K103">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="M103">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>155</v>
       </c>
@@ -6940,8 +7439,20 @@
       <c r="J104" s="4">
         <v>45958.666666666664</v>
       </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K104">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="M104">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>156</v>
       </c>
@@ -6949,8 +7460,20 @@
       <c r="J105" s="4">
         <v>45958.666666666664</v>
       </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K105">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L105">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="M105">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>157</v>
       </c>
@@ -6958,8 +7481,20 @@
       <c r="J106" s="4">
         <v>45958.666666666664</v>
       </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K106">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L106">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="M106">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>158</v>
       </c>
@@ -6967,8 +7502,20 @@
       <c r="J107" s="4">
         <v>45958.666666666664</v>
       </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K107">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L107">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="M107">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>159</v>
       </c>
@@ -6976,8 +7523,20 @@
       <c r="J108" s="4">
         <v>45958.666666666664</v>
       </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K108">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L108">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="M108">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>160</v>
       </c>
@@ -6985,8 +7544,20 @@
       <c r="J109" s="4">
         <v>45958.666666666664</v>
       </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K109">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L109">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="M109">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>161</v>
       </c>
@@ -6994,8 +7565,20 @@
       <c r="J110" s="4">
         <v>45958.666666666664</v>
       </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K110">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L110">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="M110">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>162</v>
       </c>
@@ -7003,8 +7586,20 @@
       <c r="J111" s="4">
         <v>45958.666666666664</v>
       </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K111">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L111">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="M111">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>163</v>
       </c>
@@ -7012,8 +7607,20 @@
       <c r="J112" s="4">
         <v>45958.666666666664</v>
       </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K112">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L112">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="M112">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>164</v>
       </c>
@@ -7021,8 +7628,20 @@
       <c r="J113" s="4">
         <v>45958.666666666664</v>
       </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K113">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L113">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="M113">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>165</v>
       </c>
@@ -7030,8 +7649,20 @@
       <c r="J114" s="4">
         <v>45958.666666666664</v>
       </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K114">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L114">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="M114">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>166</v>
       </c>
@@ -7039,8 +7670,20 @@
       <c r="J115" s="4">
         <v>45958.666666666664</v>
       </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K115">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L115">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="M115">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>167</v>
       </c>
@@ -7048,8 +7691,20 @@
       <c r="J116" s="4">
         <v>45958.666666666664</v>
       </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K116">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L116">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="M116">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>168</v>
       </c>
@@ -7057,8 +7712,20 @@
       <c r="J117" s="4">
         <v>45958.666666666664</v>
       </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K117">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L117">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="M117">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>169</v>
       </c>
@@ -7066,8 +7733,20 @@
       <c r="J118" s="4">
         <v>45958.666666666664</v>
       </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K118">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L118">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="M118">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>170</v>
       </c>
@@ -7075,8 +7754,20 @@
       <c r="J119" s="4">
         <v>45958.666666666664</v>
       </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K119">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L119">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="M119">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>171</v>
       </c>
@@ -7084,8 +7775,20 @@
       <c r="J120" s="4">
         <v>45958.666666666664</v>
       </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K120">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L120">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="M120">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>172</v>
       </c>
@@ -7093,8 +7796,20 @@
       <c r="J121" s="4">
         <v>45958.666666666664</v>
       </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K121">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L121">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="M121">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>173</v>
       </c>
@@ -7102,8 +7817,20 @@
       <c r="J122" s="4">
         <v>45958.666666666664</v>
       </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K122">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L122">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="M122">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>174</v>
       </c>
@@ -7111,8 +7838,20 @@
       <c r="J123" s="4">
         <v>45958.666666666664</v>
       </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K123">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L123">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="M123">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>175</v>
       </c>
@@ -7120,8 +7859,20 @@
       <c r="J124" s="4">
         <v>45958.666666666664</v>
       </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K124">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L124">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="M124">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>176</v>
       </c>
@@ -7129,8 +7880,20 @@
       <c r="J125" s="4">
         <v>45958.666666666664</v>
       </c>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K125">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L125">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="M125">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>177</v>
       </c>
@@ -7138,8 +7901,20 @@
       <c r="J126" s="4">
         <v>45958.666666666664</v>
       </c>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K126">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L126">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="M126">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>178</v>
       </c>
@@ -7147,14 +7922,38 @@
       <c r="J127" s="4">
         <v>45958.666666666664</v>
       </c>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K127">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L127">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="M127">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>179</v>
       </c>
       <c r="E128" s="1"/>
       <c r="J128" s="4">
         <v>45958.666666666664</v>
+      </c>
+      <c r="K128">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L128">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="M128">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/insta_clip/data/posts.xlsx
+++ b/insta_clip/data/posts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\srest\PycharmProjects\insta_clip\insta_clip\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC6B44CF-1BF6-45C8-8ACA-4ABF1CC1148A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7004B9AA-5F45-4836-8E3B-D060E0954D29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2464,8 +2464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H78" sqref="H78"/>
+    <sheetView tabSelected="1" topLeftCell="D77" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J76" sqref="J76:J77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4566,7 +4566,7 @@
       </c>
       <c r="L31">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
-        <v>19280</v>
+        <v>28920</v>
       </c>
       <c r="M31">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
@@ -4616,15 +4616,15 @@
       </c>
       <c r="K32">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
-        <v>27170</v>
+        <v>12350</v>
       </c>
       <c r="L32">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
+        <v>4940</v>
+      </c>
+      <c r="M32">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
         <v>9880</v>
-      </c>
-      <c r="M32">
-        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
-        <v>7410</v>
       </c>
       <c r="N32"/>
       <c r="O32"/>
@@ -4674,11 +4674,11 @@
       </c>
       <c r="L33">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
-        <v>10250</v>
+        <v>6150</v>
       </c>
       <c r="M33">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
-        <v>8200</v>
+        <v>4100</v>
       </c>
       <c r="N33"/>
       <c r="O33"/>
@@ -4721,15 +4721,15 @@
       </c>
       <c r="K34">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
-        <v>852</v>
+        <v>568</v>
       </c>
       <c r="L34">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
-        <v>426</v>
+        <v>213</v>
       </c>
       <c r="M34">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
-        <v>142</v>
+        <v>71</v>
       </c>
       <c r="N34"/>
       <c r="O34"/>
@@ -4772,15 +4772,15 @@
       </c>
       <c r="K35">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
-        <v>994</v>
+        <v>781</v>
       </c>
       <c r="L35">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
-        <v>497</v>
+        <v>284</v>
       </c>
       <c r="M35">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
-        <v>213</v>
+        <v>142</v>
       </c>
       <c r="N35"/>
       <c r="O35"/>
@@ -4826,15 +4826,15 @@
       </c>
       <c r="K36">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
-        <v>22260</v>
+        <v>41340</v>
       </c>
       <c r="L36">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
-        <v>19080</v>
+        <v>9540</v>
       </c>
       <c r="M36">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
-        <v>3180</v>
+        <v>6360</v>
       </c>
       <c r="N36"/>
       <c r="O36"/>
@@ -4881,11 +4881,11 @@
       </c>
       <c r="L37">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
-        <v>172</v>
+        <v>688</v>
       </c>
       <c r="M37">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
-        <v>86</v>
+        <v>344</v>
       </c>
       <c r="N37"/>
       <c r="O37"/>
@@ -4928,15 +4928,15 @@
       </c>
       <c r="K38">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
+        <v>24660</v>
+      </c>
+      <c r="L38">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
         <v>19180</v>
       </c>
-      <c r="L38">
-        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
-        <v>5480</v>
-      </c>
       <c r="M38">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
-        <v>2740</v>
+        <v>13700</v>
       </c>
       <c r="N38"/>
       <c r="O38"/>
@@ -4979,15 +4979,15 @@
       </c>
       <c r="K39">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
-        <v>24660</v>
+        <v>32880</v>
       </c>
       <c r="L39">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
-        <v>5480</v>
+        <v>10960</v>
       </c>
       <c r="M39">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
-        <v>13700</v>
+        <v>8220</v>
       </c>
       <c r="N39"/>
       <c r="O39"/>
@@ -5030,15 +5030,15 @@
       </c>
       <c r="K40">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
-        <v>576</v>
+        <v>960</v>
       </c>
       <c r="L40">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
-        <v>448</v>
+        <v>384</v>
       </c>
       <c r="M40">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
-        <v>192</v>
+        <v>320</v>
       </c>
       <c r="N40"/>
       <c r="O40"/>
@@ -5084,15 +5084,15 @@
       </c>
       <c r="K41">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
-        <v>11775</v>
+        <v>10990</v>
       </c>
       <c r="L41">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
+        <v>6280</v>
+      </c>
+      <c r="M41">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
         <v>1570</v>
-      </c>
-      <c r="M41">
-        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
-        <v>2355</v>
       </c>
       <c r="N41"/>
       <c r="O41"/>
@@ -5135,15 +5135,15 @@
       </c>
       <c r="K42">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
-        <v>1104</v>
+        <v>644</v>
       </c>
       <c r="L42">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
-        <v>276</v>
+        <v>460</v>
       </c>
       <c r="M42">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
-        <v>184</v>
+        <v>460</v>
       </c>
       <c r="N42"/>
       <c r="O42"/>
@@ -5189,15 +5189,15 @@
       </c>
       <c r="K43">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
-        <v>2618</v>
+        <v>1122</v>
       </c>
       <c r="L43">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
-        <v>561</v>
+        <v>1122</v>
       </c>
       <c r="M43">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
-        <v>935</v>
+        <v>748</v>
       </c>
       <c r="N43"/>
       <c r="O43"/>
@@ -5240,11 +5240,11 @@
       </c>
       <c r="K44">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
-        <v>903</v>
+        <v>774</v>
       </c>
       <c r="L44">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
-        <v>1032</v>
+        <v>645</v>
       </c>
       <c r="M44">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
@@ -5295,11 +5295,11 @@
       </c>
       <c r="L45">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
-        <v>48000</v>
+        <v>36000</v>
       </c>
       <c r="M45">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
-        <v>12000</v>
+        <v>36000</v>
       </c>
       <c r="N45"/>
       <c r="O45"/>
@@ -5339,15 +5339,15 @@
       </c>
       <c r="K46">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
-        <v>248000</v>
+        <v>155000</v>
       </c>
       <c r="L46">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
-        <v>248000</v>
+        <v>217000</v>
       </c>
       <c r="M46">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
-        <v>31000</v>
+        <v>124000</v>
       </c>
       <c r="N46"/>
       <c r="O46"/>
@@ -5390,15 +5390,15 @@
       </c>
       <c r="K47">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
-        <v>42500</v>
+        <v>68000</v>
       </c>
       <c r="L47">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
-        <v>34000</v>
+        <v>25500</v>
       </c>
       <c r="M47">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
-        <v>17000</v>
+        <v>8500</v>
       </c>
       <c r="N47"/>
       <c r="O47"/>
@@ -5441,15 +5441,15 @@
       </c>
       <c r="K48">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
-        <v>54000</v>
+        <v>60000</v>
       </c>
       <c r="L48">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
+        <v>12000</v>
+      </c>
+      <c r="M48">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
         <v>30000</v>
-      </c>
-      <c r="M48">
-        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
-        <v>12000</v>
       </c>
       <c r="N48"/>
       <c r="O48"/>
@@ -5492,11 +5492,11 @@
       </c>
       <c r="K49">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
-        <v>66000</v>
+        <v>84000</v>
       </c>
       <c r="L49">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
-        <v>12000</v>
+        <v>48000</v>
       </c>
       <c r="M49">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
@@ -5546,7 +5546,7 @@
       </c>
       <c r="K50">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
-        <v>25300</v>
+        <v>34500</v>
       </c>
       <c r="L50">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
@@ -5554,7 +5554,7 @@
       </c>
       <c r="M50">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
-        <v>2300</v>
+        <v>4600</v>
       </c>
       <c r="N50"/>
       <c r="O50"/>
@@ -5600,7 +5600,7 @@
       </c>
       <c r="K51">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
-        <v>16100</v>
+        <v>20700</v>
       </c>
       <c r="L51">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
@@ -5608,7 +5608,7 @@
       </c>
       <c r="M51">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
-        <v>6900</v>
+        <v>4600</v>
       </c>
       <c r="N51"/>
       <c r="O51"/>
@@ -5654,7 +5654,7 @@
       </c>
       <c r="K52">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
-        <v>34533</v>
+        <v>13813</v>
       </c>
       <c r="L52">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
@@ -5662,7 +5662,7 @@
       </c>
       <c r="M52">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
-        <v>11511</v>
+        <v>4604</v>
       </c>
       <c r="N52"/>
       <c r="O52"/>
@@ -5705,15 +5705,15 @@
       </c>
       <c r="K53">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
-        <v>310000</v>
+        <v>186000</v>
       </c>
       <c r="L53">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
-        <v>93000</v>
+        <v>248000</v>
       </c>
       <c r="M53">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
-        <v>62000</v>
+        <v>155000</v>
       </c>
       <c r="N53"/>
       <c r="O53"/>
@@ -5756,15 +5756,15 @@
       </c>
       <c r="K54">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
-        <v>132000</v>
+        <v>120000</v>
       </c>
       <c r="L54">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
-        <v>24000</v>
+        <v>96000</v>
       </c>
       <c r="M54">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="N54"/>
       <c r="O54"/>
@@ -5807,7 +5807,7 @@
       </c>
       <c r="K55">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
-        <v>48200</v>
+        <v>62660</v>
       </c>
       <c r="L55">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
@@ -5815,7 +5815,7 @@
       </c>
       <c r="M55">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
-        <v>19280</v>
+        <v>24100</v>
       </c>
       <c r="N55"/>
       <c r="O55"/>
@@ -5858,11 +5858,11 @@
       </c>
       <c r="K56">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
-        <v>2057</v>
+        <v>1496</v>
       </c>
       <c r="L56">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
-        <v>374</v>
+        <v>1122</v>
       </c>
       <c r="M56">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
@@ -5906,15 +5906,15 @@
       </c>
       <c r="K57">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
-        <v>645</v>
+        <v>1161</v>
       </c>
       <c r="L57">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
-        <v>1032</v>
+        <v>516</v>
       </c>
       <c r="M57">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
-        <v>516</v>
+        <v>387</v>
       </c>
       <c r="N57"/>
       <c r="O57"/>
@@ -5957,15 +5957,15 @@
       </c>
       <c r="K58">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
-        <v>27170</v>
+        <v>37050</v>
       </c>
       <c r="L58">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
-        <v>19760</v>
+        <v>12350</v>
       </c>
       <c r="M58">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
-        <v>7410</v>
+        <v>4940</v>
       </c>
       <c r="N58"/>
       <c r="O58"/>
@@ -6008,15 +6008,15 @@
       </c>
       <c r="K59">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
-        <v>14350</v>
+        <v>16400</v>
       </c>
       <c r="L59">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
-        <v>4100</v>
+        <v>12300</v>
       </c>
       <c r="M59">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
-        <v>4100</v>
+        <v>8200</v>
       </c>
       <c r="N59"/>
       <c r="O59"/>
@@ -6056,15 +6056,15 @@
       </c>
       <c r="K60">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
+        <v>1065</v>
+      </c>
+      <c r="L60">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
+        <v>568</v>
+      </c>
+      <c r="M60">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
         <v>355</v>
-      </c>
-      <c r="L60">
-        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
-        <v>284</v>
-      </c>
-      <c r="M60">
-        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
-        <v>71</v>
       </c>
       <c r="N60"/>
       <c r="O60"/>
@@ -6107,15 +6107,15 @@
       </c>
       <c r="K61">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
+        <v>25440</v>
+      </c>
+      <c r="L61">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
         <v>22260</v>
       </c>
-      <c r="L61">
-        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
-        <v>25440</v>
-      </c>
       <c r="M61">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
-        <v>12720</v>
+        <v>15900</v>
       </c>
       <c r="N61"/>
       <c r="O61"/>
@@ -6155,15 +6155,15 @@
       </c>
       <c r="K62">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
-        <v>1204</v>
+        <v>602</v>
       </c>
       <c r="L62">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
-        <v>602</v>
+        <v>516</v>
       </c>
       <c r="M62">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
-        <v>172</v>
+        <v>430</v>
       </c>
       <c r="N62"/>
       <c r="O62"/>
@@ -6203,15 +6203,15 @@
       </c>
       <c r="K63">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
-        <v>19180</v>
+        <v>38360</v>
       </c>
       <c r="L63">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
-        <v>13700</v>
+        <v>10960</v>
       </c>
       <c r="M63">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
-        <v>2740</v>
+        <v>5480</v>
       </c>
       <c r="N63"/>
       <c r="O63"/>
@@ -6251,15 +6251,15 @@
       </c>
       <c r="K64">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
-        <v>512</v>
+        <v>768</v>
       </c>
       <c r="L64">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
-        <v>320</v>
+        <v>384</v>
       </c>
       <c r="M64">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="N64"/>
       <c r="O64"/>
@@ -6306,11 +6306,11 @@
       </c>
       <c r="L65">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
-        <v>3140</v>
+        <v>4710</v>
       </c>
       <c r="M65">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
-        <v>1570</v>
+        <v>2355</v>
       </c>
       <c r="N65"/>
       <c r="O65"/>
@@ -6350,15 +6350,15 @@
       </c>
       <c r="K66">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
+        <v>552</v>
+      </c>
+      <c r="L66">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
         <v>460</v>
       </c>
-      <c r="L66">
-        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
-        <v>460</v>
-      </c>
       <c r="M66">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
-        <v>92</v>
+        <v>276</v>
       </c>
       <c r="N66"/>
       <c r="O66"/>
@@ -6401,15 +6401,15 @@
       </c>
       <c r="K67">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
-        <v>108000</v>
+        <v>84000</v>
       </c>
       <c r="L67">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
-        <v>48000</v>
+        <v>72000</v>
       </c>
       <c r="M67">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
-        <v>60000</v>
+        <v>24000</v>
       </c>
       <c r="N67"/>
       <c r="O67"/>
@@ -6449,15 +6449,15 @@
       </c>
       <c r="K68">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
-        <v>403000</v>
+        <v>248000</v>
       </c>
       <c r="L68">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
-        <v>248000</v>
+        <v>93000</v>
       </c>
       <c r="M68">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
-        <v>31000</v>
+        <v>93000</v>
       </c>
       <c r="N68"/>
       <c r="O68"/>
@@ -6500,15 +6500,15 @@
       </c>
       <c r="K69">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
-        <v>59500</v>
+        <v>76500</v>
       </c>
       <c r="L69">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
-        <v>51000</v>
+        <v>17000</v>
       </c>
       <c r="M69">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
-        <v>25500</v>
+        <v>17000</v>
       </c>
       <c r="N69"/>
       <c r="O69"/>
@@ -6555,7 +6555,7 @@
       </c>
       <c r="L70">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
-        <v>4600</v>
+        <v>16100</v>
       </c>
       <c r="M70">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
@@ -6605,15 +6605,15 @@
       </c>
       <c r="K71">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
-        <v>310000</v>
+        <v>248000</v>
       </c>
       <c r="L71">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
-        <v>93000</v>
+        <v>217000</v>
       </c>
       <c r="M71">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
-        <v>31000</v>
+        <v>155000</v>
       </c>
       <c r="N71"/>
       <c r="O71"/>
@@ -6659,15 +6659,15 @@
       </c>
       <c r="K72">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
-        <v>168000</v>
+        <v>180000</v>
       </c>
       <c r="L72">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
-        <v>60000</v>
+        <v>48000</v>
       </c>
       <c r="M72">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
-        <v>48000</v>
+        <v>24000</v>
       </c>
       <c r="N72"/>
       <c r="O72"/>
@@ -6710,15 +6710,15 @@
       </c>
       <c r="K73">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="L73">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
+        <v>104</v>
+      </c>
+      <c r="M73">
+        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
         <v>65</v>
-      </c>
-      <c r="M73">
-        <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
-        <v>52</v>
       </c>
     </row>
     <row r="74" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
@@ -6751,15 +6751,15 @@
       </c>
       <c r="K74">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
-        <v>65</v>
+        <v>169</v>
       </c>
       <c r="L74">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="M74">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
     <row r="75" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
@@ -6788,19 +6788,19 @@
         <v>567</v>
       </c>
       <c r="J75" s="4">
-        <v>45958.666666666664</v>
+        <v>45958.708333333336</v>
       </c>
       <c r="K75">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
-        <v>195</v>
+        <v>130</v>
       </c>
       <c r="L75">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="M75">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="76" spans="1:23" ht="255.75" x14ac:dyDescent="0.3">
@@ -6829,7 +6829,7 @@
         <v>571</v>
       </c>
       <c r="J76" s="4">
-        <v>45958.666666666664</v>
+        <v>45958.708333333336</v>
       </c>
       <c r="K76">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
@@ -6837,11 +6837,11 @@
       </c>
       <c r="L76">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="M76">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
-        <v>52</v>
+        <v>39</v>
       </c>
     </row>
     <row r="77" spans="1:23" ht="409.5" x14ac:dyDescent="0.25">
@@ -6870,11 +6870,11 @@
         <v>580</v>
       </c>
       <c r="J77" s="4">
-        <v>45958.666666666664</v>
+        <v>45958.708333333336</v>
       </c>
       <c r="K77">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(5,15) / 100), 0)</f>
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="L77">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(2,8) / 100), 0)</f>
@@ -6882,7 +6882,7 @@
       </c>
       <c r="M77">
         <f ca="1">ROUND(Tabela1[[#This Row],[actor_followers]] * (RANDBETWEEN(1,5) / 100), 0)</f>
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="78" spans="1:23" x14ac:dyDescent="0.25">
